--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85382.97597704192</v>
+        <v>76802.79430192988</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18158024.90737737</v>
+        <v>17594155.61720906</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16373502.16775413</v>
+        <v>15820853.8764602</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3636580.566081938</v>
+        <v>3834642.144527073</v>
       </c>
     </row>
     <row r="11">
@@ -2087,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>57.7121190521751</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>43.7775672649076</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2163,19 +2165,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
-        <v>115.7281862028015</v>
+        <v>27.46801669177194</v>
       </c>
       <c r="E21" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U21" t="n">
         <v>195.3773027531635</v>
       </c>
       <c r="V21" t="n">
-        <v>92.72495694652224</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
         <v>211.1008365810345</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>26.95996152647338</v>
+        <v>35.53563203524857</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>353.8766502980249</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2330,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>79.66075663876462</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2375,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2417,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I24" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2451,13 +2453,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V24" t="n">
-        <v>52.78076342756878</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>211.1008365810345</v>
+        <v>89.0454027214018</v>
       </c>
       <c r="X24" t="n">
         <v>174.5627220424961</v>
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>103.2794232765809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2552,20 +2554,20 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>263.7619864775174</v>
+      </c>
+      <c r="F26" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="C26" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="D26" t="n">
-        <v>123.6621491913813</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2649,10 +2651,10 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H27" t="n">
-        <v>38.69730777810975</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2694,7 +2696,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W27" t="n">
-        <v>211.1008365810345</v>
+        <v>159.217298058541</v>
       </c>
       <c r="X27" t="n">
         <v>174.5627220424961</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>81.32470272170791</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>258.9385446480964</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -2792,73 +2794,73 @@
         <v>390.1527797502169</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>343.646568403991</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="H29" t="n">
-        <v>307.7994123985592</v>
-      </c>
-      <c r="I29" t="n">
-        <v>35.84715600543184</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2925,13 +2927,13 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>126.6742602997035</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>126.6742602997035</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>174.5627220424961</v>
@@ -2953,7 +2955,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>153.0251390105131</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>68.60514786915873</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3041,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>123.6621491913814</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>166.0755005935659</v>
       </c>
       <c r="X32" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>115.7281862028015</v>
@@ -3126,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T33" t="n">
         <v>157.7484451748619</v>
@@ -3165,7 +3167,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V33" t="n">
-        <v>15.50486843024938</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W33" t="n">
         <v>211.1008365810345</v>
@@ -3174,7 +3176,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y33" t="n">
-        <v>157.8079400398083</v>
+        <v>8.024512950832792</v>
       </c>
     </row>
     <row r="34">
@@ -3187,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>94.79678461549824</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>183.8044771850866</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,76 +3265,76 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
       <c r="E35" t="n">
+        <v>343.646568403991</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="F35" t="n">
+      <c r="Y35" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="G35" t="n">
-        <v>343.646568403991</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3348,22 +3350,22 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
-        <v>115.7281862028015</v>
+        <v>6.92691122580971</v>
       </c>
       <c r="E36" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3396,16 +3398,16 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U36" t="n">
         <v>195.3773027531635</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W36" t="n">
-        <v>89.0454027214018</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X36" t="n">
         <v>174.5627220424961</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>76.93559999200797</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>156.2218231896913</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -3500,76 +3502,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="C38" t="n">
-        <v>387.4601690373238</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>85.48824505609757</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>258.1583233478933</v>
+      </c>
+      <c r="Y38" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="E38" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>346.3391791168841</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3588,16 +3590,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>105.9202115588047</v>
+        <v>39.87507815023435</v>
       </c>
       <c r="H39" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>141.9116300117318</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U39" t="n">
         <v>195.3773027531635</v>
@@ -3670,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>65.42520756919133</v>
       </c>
       <c r="I40" t="n">
-        <v>64.63266955665294</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
@@ -3721,7 +3723,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3746,10 +3748,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>50.13861450260924</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,13 +3799,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>179.4404601920395</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3837,7 +3839,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>211.5744117368965</v>
+        <v>159.6908732144031</v>
       </c>
       <c r="W42" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y42" t="n">
-        <v>36.36967406407684</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="43">
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>105.2370018595792</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>266.272328390067</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3974,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>343.6465684039908</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4053,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4116,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>106.1331548337409</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="46">
@@ -4138,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>56.12882701083657</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -5726,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>569.952771732027</v>
+        <v>469.5257042134764</v>
       </c>
       <c r="C20" t="n">
-        <v>569.952771732027</v>
+        <v>469.5257042134764</v>
       </c>
       <c r="D20" t="n">
-        <v>569.952771732027</v>
+        <v>469.5257042134764</v>
       </c>
       <c r="E20" t="n">
-        <v>511.6577019823552</v>
+        <v>469.5257042134764</v>
       </c>
       <c r="F20" t="n">
-        <v>117.5639850629442</v>
+        <v>469.5257042134764</v>
       </c>
       <c r="G20" t="n">
-        <v>117.5639850629442</v>
+        <v>75.43198729406544</v>
       </c>
       <c r="H20" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I20" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J20" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K20" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L20" t="n">
-        <v>401.8573631427234</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M20" t="n">
-        <v>788.1086150954382</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="N20" t="n">
-        <v>1174.359867048153</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="O20" t="n">
-        <v>1174.359867048153</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="P20" t="n">
-        <v>1560.611119000868</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="Q20" t="n">
         <v>1560.611119000868</v>
@@ -5777,25 +5779,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S20" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T20" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U20" t="n">
-        <v>1303.550627260378</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="V20" t="n">
-        <v>953.7130725968584</v>
+        <v>853.2860050783079</v>
       </c>
       <c r="W20" t="n">
-        <v>569.952771732027</v>
+        <v>469.5257042134764</v>
       </c>
       <c r="X20" t="n">
-        <v>569.952771732027</v>
+        <v>469.5257042134764</v>
       </c>
       <c r="Y20" t="n">
-        <v>569.952771732027</v>
+        <v>469.5257042134764</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>580.3345930692965</v>
+        <v>192.9527650369019</v>
       </c>
       <c r="C21" t="n">
-        <v>446.3395218182422</v>
+        <v>58.9576937858476</v>
       </c>
       <c r="D21" t="n">
-        <v>329.4423640376347</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E21" t="n">
-        <v>208.9495480299626</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F21" t="n">
-        <v>208.9495480299626</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G21" t="n">
-        <v>101.9594353443013</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H21" t="n">
         <v>31.21222238001735</v>
@@ -5832,22 +5834,22 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K21" t="n">
+        <v>224.0250799426506</v>
+      </c>
+      <c r="L21" t="n">
+        <v>224.0250799426506</v>
+      </c>
+      <c r="M21" t="n">
         <v>610.2763318953653</v>
       </c>
-      <c r="L21" t="n">
-        <v>794.9558830015396</v>
-      </c>
-      <c r="M21" t="n">
-        <v>794.9558830015396</v>
-      </c>
       <c r="N21" t="n">
-        <v>794.9558830015396</v>
+        <v>996.52758384808</v>
       </c>
       <c r="O21" t="n">
-        <v>794.9558830015396</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="P21" t="n">
-        <v>1181.207134954254</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="Q21" t="n">
         <v>1531.051599638238</v>
@@ -5856,25 +5858,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S21" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T21" t="n">
-        <v>1560.611119000868</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U21" t="n">
-        <v>1363.260308139086</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V21" t="n">
-        <v>1269.598735465831</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W21" t="n">
-        <v>1056.36556720216</v>
+        <v>668.9837391697657</v>
       </c>
       <c r="X21" t="n">
-        <v>880.0395853410531</v>
+        <v>492.6577573086585</v>
       </c>
       <c r="Y21" t="n">
-        <v>720.6376257048831</v>
+        <v>333.2557976724885</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>485.3088229720902</v>
+        <v>824.5591335306709</v>
       </c>
       <c r="C22" t="n">
-        <v>485.3088229720902</v>
+        <v>653.4657610923874</v>
       </c>
       <c r="D22" t="n">
-        <v>485.3088229720902</v>
+        <v>493.9711164152974</v>
       </c>
       <c r="E22" t="n">
-        <v>324.3980078404097</v>
+        <v>333.0603012836169</v>
       </c>
       <c r="F22" t="n">
-        <v>324.3980078404097</v>
+        <v>333.0603012836169</v>
       </c>
       <c r="G22" t="n">
         <v>297.1657234702345</v>
@@ -5911,13 +5913,13 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K22" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074661</v>
       </c>
       <c r="L22" t="n">
-        <v>459.7441997875264</v>
+        <v>459.7441997875267</v>
       </c>
       <c r="M22" t="n">
-        <v>749.0082562280197</v>
+        <v>749.0082562280199</v>
       </c>
       <c r="N22" t="n">
         <v>1029.84703862227</v>
@@ -5932,28 +5934,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R22" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S22" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="T22" t="n">
-        <v>1321.06237997757</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="U22" t="n">
-        <v>1038.264232523694</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="V22" t="n">
-        <v>764.3784874632158</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="W22" t="n">
-        <v>485.3088229720902</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="X22" t="n">
-        <v>485.3088229720902</v>
+        <v>1236.994538535951</v>
       </c>
       <c r="Y22" t="n">
-        <v>485.3088229720902</v>
+        <v>1012.258839924715</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>816.6798474179373</v>
+        <v>388.6633842972142</v>
       </c>
       <c r="C23" t="n">
-        <v>816.6798474179373</v>
+        <v>388.6633842972142</v>
       </c>
       <c r="D23" t="n">
-        <v>816.6798474179373</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E23" t="n">
-        <v>816.6798474179373</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F23" t="n">
-        <v>816.6798474179373</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G23" t="n">
-        <v>422.5861304985262</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H23" t="n">
-        <v>111.6776331262442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I23" t="n">
         <v>31.21222238001735</v>
@@ -5993,19 +5995,19 @@
         <v>671.6489458004863</v>
       </c>
       <c r="L23" t="n">
-        <v>671.6489458004863</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M23" t="n">
-        <v>1057.900197753201</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="N23" t="n">
-        <v>1198.893466516011</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="O23" t="n">
-        <v>1198.893466516011</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="P23" t="n">
-        <v>1198.893466516011</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="Q23" t="n">
         <v>1520.054473311303</v>
@@ -6023,16 +6025,16 @@
         <v>1560.611119000868</v>
       </c>
       <c r="V23" t="n">
-        <v>1210.773564337348</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W23" t="n">
-        <v>1210.773564337348</v>
+        <v>1176.850818136036</v>
       </c>
       <c r="X23" t="n">
-        <v>816.6798474179373</v>
+        <v>782.7571012166252</v>
       </c>
       <c r="Y23" t="n">
-        <v>816.6798474179373</v>
+        <v>388.6633842972142</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>710.0430642665517</v>
+        <v>689.2944728867919</v>
       </c>
       <c r="C24" t="n">
-        <v>576.0479930154975</v>
+        <v>555.2994016357376</v>
       </c>
       <c r="D24" t="n">
-        <v>459.1508352348899</v>
+        <v>438.40224385513</v>
       </c>
       <c r="E24" t="n">
-        <v>338.6580192272179</v>
+        <v>317.909427847458</v>
       </c>
       <c r="F24" t="n">
-        <v>229.6981394097224</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="G24" t="n">
-        <v>122.7080267240611</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H24" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I24" t="n">
         <v>31.21222238001735</v>
@@ -6072,22 +6074,22 @@
         <v>224.0250799426506</v>
       </c>
       <c r="L24" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="M24" t="n">
-        <v>372.2978437800934</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="N24" t="n">
-        <v>758.5490957328082</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="O24" t="n">
-        <v>1144.800347685523</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="P24" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q24" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R24" t="n">
         <v>1560.611119000868</v>
@@ -6099,19 +6101,19 @@
         <v>1452.621109115176</v>
       </c>
       <c r="U24" t="n">
-        <v>1452.621109115176</v>
+        <v>1255.270298253395</v>
       </c>
       <c r="V24" t="n">
-        <v>1399.307206663087</v>
+        <v>1255.270298253395</v>
       </c>
       <c r="W24" t="n">
-        <v>1186.074038399415</v>
+        <v>1165.325447019656</v>
       </c>
       <c r="X24" t="n">
-        <v>1009.748056538308</v>
+        <v>988.9994651585486</v>
       </c>
       <c r="Y24" t="n">
-        <v>850.3460969021384</v>
+        <v>829.5975055223786</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.21222238001735</v>
+        <v>627.0337044013955</v>
       </c>
       <c r="C25" t="n">
-        <v>31.21222238001735</v>
+        <v>455.940331963112</v>
       </c>
       <c r="D25" t="n">
-        <v>31.21222238001735</v>
+        <v>296.4456872860221</v>
       </c>
       <c r="E25" t="n">
-        <v>31.21222238001735</v>
+        <v>135.5348721543415</v>
       </c>
       <c r="F25" t="n">
-        <v>31.21222238001735</v>
+        <v>135.5348721543415</v>
       </c>
       <c r="G25" t="n">
-        <v>31.21222238001735</v>
+        <v>135.5348721543415</v>
       </c>
       <c r="H25" t="n">
-        <v>31.21222238001735</v>
+        <v>135.5348721543415</v>
       </c>
       <c r="I25" t="n">
         <v>31.21222238001735</v>
@@ -6148,7 +6150,7 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K25" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074658</v>
       </c>
       <c r="L25" t="n">
         <v>459.7441997875264</v>
@@ -6169,28 +6171,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R25" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S25" t="n">
-        <v>1288.946632556178</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T25" t="n">
-        <v>1049.39789353288</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U25" t="n">
-        <v>766.5997460790038</v>
+        <v>1277.812971546992</v>
       </c>
       <c r="V25" t="n">
-        <v>492.7140010185257</v>
+        <v>1277.812971546992</v>
       </c>
       <c r="W25" t="n">
-        <v>213.6443365274001</v>
+        <v>1277.812971546992</v>
       </c>
       <c r="X25" t="n">
-        <v>31.21222238001735</v>
+        <v>1039.469109406675</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.21222238001735</v>
+        <v>814.7334107954399</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>550.2172011089044</v>
+        <v>691.7321882666176</v>
       </c>
       <c r="C26" t="n">
-        <v>156.1234841894934</v>
+        <v>691.7321882666176</v>
       </c>
       <c r="D26" t="n">
-        <v>31.21222238001735</v>
+        <v>691.7321882666176</v>
       </c>
       <c r="E26" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="F26" t="n">
         <v>31.21222238001735</v>
@@ -6230,16 +6232,16 @@
         <v>671.6489458004863</v>
       </c>
       <c r="L26" t="n">
+        <v>671.6489458004863</v>
+      </c>
+      <c r="M26" t="n">
+        <v>671.6489458004863</v>
+      </c>
+      <c r="N26" t="n">
         <v>1057.900197753201</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26" t="n">
         <v>1133.803221358588</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1133.803221358588</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1520.054473311303</v>
       </c>
       <c r="P26" t="n">
         <v>1520.054473311303</v>
@@ -6251,25 +6253,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S26" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T26" t="n">
-        <v>1338.404634947726</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="U26" t="n">
-        <v>1338.404634947726</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="V26" t="n">
-        <v>1338.404634947726</v>
+        <v>1075.492489131449</v>
       </c>
       <c r="W26" t="n">
-        <v>1338.404634947726</v>
+        <v>691.7321882666176</v>
       </c>
       <c r="X26" t="n">
-        <v>944.3109180283154</v>
+        <v>691.7321882666176</v>
       </c>
       <c r="Y26" t="n">
-        <v>944.3109180283154</v>
+        <v>691.7321882666176</v>
       </c>
     </row>
     <row r="27">
@@ -6279,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>657.6354495973663</v>
+        <v>710.0430642665517</v>
       </c>
       <c r="C27" t="n">
-        <v>523.640378346312</v>
+        <v>576.0479930154975</v>
       </c>
       <c r="D27" t="n">
-        <v>406.7432205657044</v>
+        <v>459.1508352348899</v>
       </c>
       <c r="E27" t="n">
-        <v>286.2504045580324</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="F27" t="n">
-        <v>177.290524740537</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G27" t="n">
-        <v>70.30041205487569</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H27" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I27" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J27" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K27" t="n">
-        <v>401.8573631427234</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L27" t="n">
-        <v>788.1086150954382</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.359867048153</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="N27" t="n">
-        <v>1560.611119000868</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="O27" t="n">
-        <v>1560.611119000868</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="P27" t="n">
-        <v>1560.611119000868</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q27" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R27" t="n">
         <v>1560.611119000868</v>
@@ -6342,13 +6344,13 @@
         <v>1346.899591993901</v>
       </c>
       <c r="W27" t="n">
-        <v>1133.66642373023</v>
+        <v>1186.074038399415</v>
       </c>
       <c r="X27" t="n">
-        <v>957.340441869123</v>
+        <v>1009.748056538308</v>
       </c>
       <c r="Y27" t="n">
-        <v>797.938482232953</v>
+        <v>850.3460969021384</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1043.197592369425</v>
+        <v>361.8002394953908</v>
       </c>
       <c r="C28" t="n">
-        <v>872.1042199311419</v>
+        <v>190.7068670571073</v>
       </c>
       <c r="D28" t="n">
-        <v>789.9580555657803</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E28" t="n">
-        <v>629.0472404340999</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F28" t="n">
-        <v>464.4161145446911</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G28" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H28" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I28" t="n">
         <v>31.21222238001735</v>
@@ -6385,13 +6387,13 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K28" t="n">
-        <v>199.8470995074661</v>
+        <v>199.8470995074658</v>
       </c>
       <c r="L28" t="n">
-        <v>459.7441997875267</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M28" t="n">
-        <v>749.0082562280199</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N28" t="n">
         <v>1029.84703862227</v>
@@ -6406,28 +6408,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R28" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S28" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T28" t="n">
-        <v>1560.611119000868</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="U28" t="n">
-        <v>1560.611119000868</v>
+        <v>787.8438080297519</v>
       </c>
       <c r="V28" t="n">
-        <v>1560.611119000868</v>
+        <v>787.8438080297519</v>
       </c>
       <c r="W28" t="n">
-        <v>1281.541454509742</v>
+        <v>787.8438080297519</v>
       </c>
       <c r="X28" t="n">
-        <v>1043.197592369425</v>
+        <v>549.4999458894353</v>
       </c>
       <c r="Y28" t="n">
-        <v>1043.197592369425</v>
+        <v>549.4999458894353</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1166.517402081457</v>
+        <v>772.4236851620456</v>
       </c>
       <c r="C29" t="n">
-        <v>1166.517402081457</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="D29" t="n">
-        <v>772.4236851620456</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="E29" t="n">
-        <v>772.4236851620456</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="F29" t="n">
-        <v>772.4236851620456</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G29" t="n">
-        <v>378.3299682426345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H29" t="n">
-        <v>67.42147087035255</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I29" t="n">
         <v>31.21222238001735</v>
@@ -6467,16 +6469,16 @@
         <v>31.21222238001735</v>
       </c>
       <c r="L29" t="n">
-        <v>31.21222238001735</v>
+        <v>361.3007174531585</v>
       </c>
       <c r="M29" t="n">
-        <v>417.4634743327321</v>
+        <v>747.5519694058733</v>
       </c>
       <c r="N29" t="n">
-        <v>803.7147262854468</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="O29" t="n">
-        <v>1189.965978238161</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="P29" t="n">
         <v>1520.054473311303</v>
@@ -6506,7 +6508,7 @@
         <v>1560.611119000868</v>
       </c>
       <c r="Y29" t="n">
-        <v>1560.611119000868</v>
+        <v>1166.517402081457</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6542,22 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J30" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K30" t="n">
-        <v>31.21222238001735</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L30" t="n">
-        <v>401.8573631427234</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M30" t="n">
-        <v>788.1086150954382</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N30" t="n">
-        <v>1174.359867048153</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="O30" t="n">
-        <v>1560.611119000868</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="P30" t="n">
         <v>1560.611119000868</v>
@@ -6573,10 +6575,10 @@
         <v>1293.279245302185</v>
       </c>
       <c r="U30" t="n">
-        <v>1293.279245302185</v>
+        <v>1165.325447019656</v>
       </c>
       <c r="V30" t="n">
-        <v>1293.279245302185</v>
+        <v>1165.325447019656</v>
       </c>
       <c r="W30" t="n">
         <v>1165.325447019656</v>
@@ -6595,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>202.3055948183008</v>
+        <v>356.8764423036677</v>
       </c>
       <c r="C31" t="n">
-        <v>31.21222238001735</v>
+        <v>185.7830698653842</v>
       </c>
       <c r="D31" t="n">
         <v>31.21222238001735</v>
@@ -6622,13 +6624,13 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K31" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074661</v>
       </c>
       <c r="L31" t="n">
-        <v>459.7441997875264</v>
+        <v>459.7441997875267</v>
       </c>
       <c r="M31" t="n">
-        <v>749.0082562280197</v>
+        <v>749.0082562280199</v>
       </c>
       <c r="N31" t="n">
         <v>1029.84703862227</v>
@@ -6643,28 +6645,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R31" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S31" t="n">
-        <v>1406.040271515501</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T31" t="n">
-        <v>1406.040271515501</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U31" t="n">
-        <v>1406.040271515501</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V31" t="n">
-        <v>1132.154526455023</v>
+        <v>1286.72537394039</v>
       </c>
       <c r="W31" t="n">
-        <v>853.0848619638971</v>
+        <v>1007.655709449264</v>
       </c>
       <c r="X31" t="n">
-        <v>614.7409998235805</v>
+        <v>769.3118473089473</v>
       </c>
       <c r="Y31" t="n">
-        <v>390.0053012123452</v>
+        <v>544.576148697712</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>425.3059392994284</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="C32" t="n">
-        <v>425.3059392994284</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="D32" t="n">
-        <v>425.3059392994284</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="E32" t="n">
-        <v>425.3059392994284</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="F32" t="n">
-        <v>425.3059392994284</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="G32" t="n">
-        <v>31.21222238001735</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="H32" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I32" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J32" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K32" t="n">
-        <v>285.3976938477716</v>
+        <v>361.3007174531585</v>
       </c>
       <c r="L32" t="n">
-        <v>671.6489458004863</v>
+        <v>747.5519694058733</v>
       </c>
       <c r="M32" t="n">
-        <v>1057.900197753201</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="N32" t="n">
-        <v>1198.893466516011</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="O32" t="n">
-        <v>1198.893466516011</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="P32" t="n">
-        <v>1198.893466516011</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="Q32" t="n">
         <v>1520.054473311303</v>
@@ -6725,25 +6727,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S32" t="n">
-        <v>1435.699857191391</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T32" t="n">
-        <v>1213.49337313825</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U32" t="n">
-        <v>1213.49337313825</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="V32" t="n">
-        <v>1213.49337313825</v>
+        <v>596.225513337818</v>
       </c>
       <c r="W32" t="n">
-        <v>1213.49337313825</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="X32" t="n">
-        <v>819.3996562188394</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="Y32" t="n">
-        <v>425.3059392994284</v>
+        <v>428.4724824352262</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>639.2958513022677</v>
+        <v>484.5521886714537</v>
       </c>
       <c r="C33" t="n">
-        <v>505.3007800512135</v>
+        <v>484.5521886714537</v>
       </c>
       <c r="D33" t="n">
-        <v>388.4036222706059</v>
+        <v>367.6550308908461</v>
       </c>
       <c r="E33" t="n">
-        <v>267.9108062629339</v>
+        <v>247.1622148831741</v>
       </c>
       <c r="F33" t="n">
-        <v>158.9509264454385</v>
+        <v>138.2023350656787</v>
       </c>
       <c r="G33" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H33" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I33" t="n">
         <v>31.21222238001735</v>
@@ -6789,7 +6791,7 @@
         <v>788.1086150954382</v>
       </c>
       <c r="N33" t="n">
-        <v>1174.359867048153</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="O33" t="n">
         <v>1174.359867048153</v>
@@ -6804,25 +6806,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S33" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T33" t="n">
-        <v>1401.269255187876</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U33" t="n">
-        <v>1203.918444326094</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V33" t="n">
-        <v>1188.256961063216</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W33" t="n">
-        <v>975.0237927995449</v>
+        <v>668.9837391697657</v>
       </c>
       <c r="X33" t="n">
-        <v>798.6978109384377</v>
+        <v>492.6577573086585</v>
       </c>
       <c r="Y33" t="n">
-        <v>639.2958513022677</v>
+        <v>484.5521886714537</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>961.0514280040638</v>
+        <v>307.0529129527812</v>
       </c>
       <c r="C34" t="n">
-        <v>789.9580555657803</v>
+        <v>307.0529129527812</v>
       </c>
       <c r="D34" t="n">
-        <v>789.9580555657803</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="E34" t="n">
-        <v>629.0472404340999</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="F34" t="n">
-        <v>464.4161145446911</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="G34" t="n">
-        <v>297.1657234702345</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="H34" t="n">
         <v>147.5582682756912</v>
@@ -6874,34 +6876,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P34" t="n">
-        <v>1495.083089198357</v>
+        <v>1495.083089198356</v>
       </c>
       <c r="Q34" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R34" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S34" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556177</v>
       </c>
       <c r="T34" t="n">
-        <v>1560.611119000868</v>
+        <v>1049.397893532879</v>
       </c>
       <c r="U34" t="n">
-        <v>1464.856791106425</v>
+        <v>766.5997460790034</v>
       </c>
       <c r="V34" t="n">
-        <v>1464.856791106425</v>
+        <v>492.7140010185253</v>
       </c>
       <c r="W34" t="n">
-        <v>1185.787126615299</v>
+        <v>307.0529129527812</v>
       </c>
       <c r="X34" t="n">
-        <v>1185.787126615299</v>
+        <v>307.0529129527812</v>
       </c>
       <c r="Y34" t="n">
-        <v>961.0514280040638</v>
+        <v>307.0529129527812</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1166.517402081457</v>
+        <v>772.4236851620456</v>
       </c>
       <c r="C35" t="n">
-        <v>1166.517402081457</v>
+        <v>772.4236851620456</v>
       </c>
       <c r="D35" t="n">
-        <v>1166.517402081457</v>
+        <v>378.3299682426345</v>
       </c>
       <c r="E35" t="n">
-        <v>772.4236851620456</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F35" t="n">
-        <v>378.3299682426345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G35" t="n">
         <v>31.21222238001735</v>
@@ -6944,10 +6946,10 @@
         <v>747.5519694058733</v>
       </c>
       <c r="M35" t="n">
+        <v>747.5519694058733</v>
+      </c>
+      <c r="N35" t="n">
         <v>1133.803221358588</v>
-      </c>
-      <c r="N35" t="n">
-        <v>1520.054473311303</v>
       </c>
       <c r="O35" t="n">
         <v>1520.054473311303</v>
@@ -6977,10 +6979,10 @@
         <v>1560.611119000868</v>
       </c>
       <c r="X35" t="n">
-        <v>1560.611119000868</v>
+        <v>1166.517402081457</v>
       </c>
       <c r="Y35" t="n">
-        <v>1560.611119000868</v>
+        <v>772.4236851620456</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>689.2944728867919</v>
+        <v>192.9527650369019</v>
       </c>
       <c r="C36" t="n">
-        <v>555.2994016357376</v>
+        <v>58.9576937858476</v>
       </c>
       <c r="D36" t="n">
-        <v>438.40224385513</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="E36" t="n">
-        <v>317.909427847458</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="F36" t="n">
-        <v>208.9495480299626</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="G36" t="n">
-        <v>101.9594353443013</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="H36" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I36" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J36" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K36" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="L36" t="n">
-        <v>401.8573631427234</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="M36" t="n">
-        <v>788.1086150954382</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="N36" t="n">
-        <v>1174.359867048153</v>
+        <v>996.52758384808</v>
       </c>
       <c r="O36" t="n">
-        <v>1560.611119000868</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="P36" t="n">
-        <v>1560.611119000868</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="Q36" t="n">
         <v>1560.611119000868</v>
@@ -7044,22 +7046,22 @@
         <v>1452.621109115176</v>
       </c>
       <c r="T36" t="n">
-        <v>1452.621109115176</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U36" t="n">
-        <v>1255.270298253395</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V36" t="n">
-        <v>1255.270298253395</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W36" t="n">
-        <v>1165.325447019656</v>
+        <v>668.9837391697657</v>
       </c>
       <c r="X36" t="n">
-        <v>988.9994651585486</v>
+        <v>492.6577573086585</v>
       </c>
       <c r="Y36" t="n">
-        <v>829.5975055223786</v>
+        <v>333.2557976724885</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>314.8086593501478</v>
+        <v>478.1462853910647</v>
       </c>
       <c r="C37" t="n">
-        <v>314.8086593501478</v>
+        <v>307.0529129527812</v>
       </c>
       <c r="D37" t="n">
-        <v>314.8086593501478</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="E37" t="n">
-        <v>314.8086593501478</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="F37" t="n">
-        <v>314.8086593501478</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="G37" t="n">
         <v>147.5582682756912</v>
@@ -7120,25 +7122,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S37" t="n">
-        <v>1374.219350880778</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T37" t="n">
-        <v>1134.67061185748</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U37" t="n">
-        <v>1134.67061185748</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V37" t="n">
-        <v>1134.67061185748</v>
+        <v>1286.72537394039</v>
       </c>
       <c r="W37" t="n">
-        <v>855.6009473663541</v>
+        <v>1128.925552536661</v>
       </c>
       <c r="X37" t="n">
-        <v>617.2570852260376</v>
+        <v>890.5816903963444</v>
       </c>
       <c r="Y37" t="n">
-        <v>392.5213866148023</v>
+        <v>665.845991785109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1210.773564337348</v>
+        <v>511.6577019823552</v>
       </c>
       <c r="C38" t="n">
-        <v>819.3996562188394</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="D38" t="n">
-        <v>425.3059392994284</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="E38" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="F38" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="G38" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="H38" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I38" t="n">
         <v>31.21222238001735</v>
@@ -7175,25 +7177,25 @@
         <v>31.21222238001735</v>
       </c>
       <c r="K38" t="n">
-        <v>417.4634743327321</v>
+        <v>361.3007174531585</v>
       </c>
       <c r="L38" t="n">
-        <v>417.4634743327321</v>
+        <v>747.5519694058733</v>
       </c>
       <c r="M38" t="n">
-        <v>466.9476083001462</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="N38" t="n">
-        <v>853.1988602528609</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="O38" t="n">
-        <v>1239.450112205576</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="P38" t="n">
-        <v>1239.450112205576</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="Q38" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R38" t="n">
         <v>1560.611119000868</v>
@@ -7208,16 +7210,16 @@
         <v>1560.611119000868</v>
       </c>
       <c r="V38" t="n">
-        <v>1210.773564337348</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W38" t="n">
-        <v>1210.773564337348</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="X38" t="n">
-        <v>1210.773564337348</v>
+        <v>1299.845135821177</v>
       </c>
       <c r="Y38" t="n">
-        <v>1210.773564337348</v>
+        <v>905.7514189017662</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>208.9495480299626</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C39" t="n">
-        <v>208.9495480299626</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="D39" t="n">
-        <v>208.9495480299626</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="E39" t="n">
-        <v>208.9495480299626</v>
+        <v>180.4499589149212</v>
       </c>
       <c r="F39" t="n">
-        <v>208.9495480299626</v>
+        <v>71.49007909742579</v>
       </c>
       <c r="G39" t="n">
-        <v>101.9594353443013</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H39" t="n">
         <v>31.21222238001735</v>
@@ -7254,10 +7256,10 @@
         <v>31.21222238001735</v>
       </c>
       <c r="K39" t="n">
-        <v>31.21222238001735</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="L39" t="n">
-        <v>31.21222238001735</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="M39" t="n">
         <v>417.4634743327321</v>
@@ -7266,37 +7268,37 @@
         <v>803.7147262854468</v>
       </c>
       <c r="O39" t="n">
-        <v>1189.965978238161</v>
+        <v>1144.800347685523</v>
       </c>
       <c r="P39" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="Q39" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R39" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S39" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T39" t="n">
-        <v>1309.276028295245</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U39" t="n">
-        <v>1111.925217433464</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V39" t="n">
-        <v>898.2136904264977</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W39" t="n">
-        <v>684.9805221628264</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X39" t="n">
-        <v>508.6545403017192</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y39" t="n">
-        <v>349.2525806655493</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>577.986719343126</v>
+        <v>213.6443365273996</v>
       </c>
       <c r="C40" t="n">
-        <v>577.986719343126</v>
+        <v>213.6443365273996</v>
       </c>
       <c r="D40" t="n">
-        <v>577.986719343126</v>
+        <v>213.6443365273996</v>
       </c>
       <c r="E40" t="n">
-        <v>577.986719343126</v>
+        <v>213.6443365273996</v>
       </c>
       <c r="F40" t="n">
-        <v>413.3555934537172</v>
+        <v>213.6443365273996</v>
       </c>
       <c r="G40" t="n">
-        <v>246.1052023792606</v>
+        <v>213.6443365273996</v>
       </c>
       <c r="H40" t="n">
-        <v>96.4977471847173</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="I40" t="n">
         <v>31.21222238001735</v>
@@ -7348,34 +7350,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P40" t="n">
-        <v>1495.083089198357</v>
+        <v>1495.083089198356</v>
       </c>
       <c r="Q40" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R40" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S40" t="n">
-        <v>1374.219350880778</v>
+        <v>1288.946632556177</v>
       </c>
       <c r="T40" t="n">
-        <v>1134.67061185748</v>
+        <v>1049.397893532879</v>
       </c>
       <c r="U40" t="n">
-        <v>851.872464403604</v>
+        <v>766.5997460790034</v>
       </c>
       <c r="V40" t="n">
-        <v>577.986719343126</v>
+        <v>492.7140010185253</v>
       </c>
       <c r="W40" t="n">
-        <v>577.986719343126</v>
+        <v>213.6443365273996</v>
       </c>
       <c r="X40" t="n">
-        <v>577.986719343126</v>
+        <v>213.6443365273996</v>
       </c>
       <c r="Y40" t="n">
-        <v>577.986719343126</v>
+        <v>213.6443365273996</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>562.302767136506</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C41" t="n">
-        <v>562.302767136506</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D41" t="n">
-        <v>562.302767136506</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E41" t="n">
-        <v>168.209050217095</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F41" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G41" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H41" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I41" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J41" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K41" t="n">
-        <v>31.21222238001735</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L41" t="n">
-        <v>417.4634743327321</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M41" t="n">
-        <v>417.4634743327321</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="N41" t="n">
-        <v>426.3909626105813</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="O41" t="n">
-        <v>812.642214563296</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="P41" t="n">
-        <v>1198.893466516011</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="Q41" t="n">
         <v>1520.054473311303</v>
@@ -7445,16 +7447,16 @@
         <v>946.0630680013373</v>
       </c>
       <c r="V41" t="n">
-        <v>946.0630680013373</v>
+        <v>596.225513337818</v>
       </c>
       <c r="W41" t="n">
-        <v>562.302767136506</v>
+        <v>212.4652124729866</v>
       </c>
       <c r="X41" t="n">
-        <v>562.302767136506</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="Y41" t="n">
-        <v>562.302767136506</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>689.2944728867919</v>
+        <v>710.0430642665517</v>
       </c>
       <c r="C42" t="n">
-        <v>555.2994016357376</v>
+        <v>576.0479930154975</v>
       </c>
       <c r="D42" t="n">
-        <v>438.40224385513</v>
+        <v>459.1508352348899</v>
       </c>
       <c r="E42" t="n">
-        <v>317.909427847458</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="F42" t="n">
-        <v>208.9495480299626</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G42" t="n">
-        <v>101.9594353443013</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H42" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I42" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J42" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K42" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="L42" t="n">
-        <v>31.21222238001735</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="M42" t="n">
-        <v>417.4634743327321</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="N42" t="n">
-        <v>803.7147262854468</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="O42" t="n">
-        <v>1189.965978238161</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P42" t="n">
-        <v>1560.611119000868</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q42" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R42" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S42" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T42" t="n">
-        <v>1293.279245302185</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U42" t="n">
-        <v>1293.279245302185</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V42" t="n">
-        <v>1079.567718295218</v>
+        <v>1399.307206663087</v>
       </c>
       <c r="W42" t="n">
-        <v>866.3345500315471</v>
+        <v>1186.074038399415</v>
       </c>
       <c r="X42" t="n">
-        <v>866.3345500315471</v>
+        <v>1009.748056538308</v>
       </c>
       <c r="Y42" t="n">
-        <v>829.5975055223786</v>
+        <v>850.3460969021384</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>454.3700705273801</v>
+        <v>361.8002394953908</v>
       </c>
       <c r="C43" t="n">
-        <v>454.3700705273801</v>
+        <v>190.7068670571073</v>
       </c>
       <c r="D43" t="n">
-        <v>454.3700705273801</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E43" t="n">
-        <v>454.3700705273801</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F43" t="n">
-        <v>454.3700705273801</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G43" t="n">
-        <v>287.1196794529235</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H43" t="n">
-        <v>137.5122242583801</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I43" t="n">
         <v>31.21222238001735</v>
@@ -7585,34 +7587,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P43" t="n">
-        <v>1495.083089198357</v>
+        <v>1495.083089198356</v>
       </c>
       <c r="Q43" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R43" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S43" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T43" t="n">
-        <v>1235.789661652969</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="U43" t="n">
-        <v>952.9915141990934</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="V43" t="n">
-        <v>679.1057691386154</v>
+        <v>1291.649171132113</v>
       </c>
       <c r="W43" t="n">
-        <v>679.1057691386154</v>
+        <v>1012.579506640987</v>
       </c>
       <c r="X43" t="n">
-        <v>679.1057691386154</v>
+        <v>774.2356445006706</v>
       </c>
       <c r="Y43" t="n">
-        <v>454.3700705273801</v>
+        <v>549.4999458894353</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1166.517402081456</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>772.4236851620452</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>378.3299682426343</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>378.3299682426343</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>671.6489458004862</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>671.6489458004862</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1444.151449705915</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>1560.611119000867</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>710.0430642665517</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>576.0479930154975</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>459.1508352348899</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>338.6580192272178</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>51.96081375977717</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>610.2763318953652</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>996.5275838480798</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1293.279245302184</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1293.279245302184</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1293.279245302184</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1186.074038399415</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>1009.748056538308</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>850.3460969021384</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>949.4527002428704</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>949.4527002428704</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>789.9580555657803</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>629.0472404340999</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>464.4161145446911</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>297.1657234702345</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>45.29477178522788</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>749.0082562280196</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1029.84703862227</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1289.407648948744</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1495.083089198356</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1288.946632556177</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1232.250847696746</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>949.4527002428704</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>949.4527002428704</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>949.4527002428704</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>949.4527002428704</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>949.4527002428704</v>
       </c>
     </row>
   </sheetData>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L20" t="n">
-        <v>469.8744291362853</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M20" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N20" t="n">
         <v>483.0650705068362</v>
       </c>
       <c r="O20" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P20" t="n">
         <v>483.8021430311011</v>
       </c>
       <c r="Q20" t="n">
-        <v>90.03380439915205</v>
+        <v>207.6698339900124</v>
       </c>
       <c r="R20" t="n">
         <v>87.31214281472352</v>
@@ -9480,25 +9482,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>445.9785625348323</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>242.6595249281969</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>443.3461731439669</v>
       </c>
       <c r="O21" t="n">
-        <v>57.751479</v>
+        <v>447.9042587502169</v>
       </c>
       <c r="P21" t="n">
-        <v>444.4124147530206</v>
+        <v>204.0301035254733</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
         <v>88.85829947169823</v>
@@ -9559,7 +9561,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>208.3638319047618</v>
+        <v>208.363831904762</v>
       </c>
       <c r="L22" t="n">
         <v>317.1506174091142</v>
@@ -9641,13 +9643,13 @@
         <v>479.289169423434</v>
       </c>
       <c r="L23" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M23" t="n">
         <v>483.4430042072623</v>
       </c>
       <c r="N23" t="n">
-        <v>235.3297339513764</v>
+        <v>169.5820115701414</v>
       </c>
       <c r="O23" t="n">
         <v>93.18977562578313</v>
@@ -9656,7 +9658,7 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q23" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R23" t="n">
         <v>128.2784515920617</v>
@@ -9720,13 +9722,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M24" t="n">
-        <v>207.334752261087</v>
+        <v>237.1928526273799</v>
       </c>
       <c r="N24" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
         <v>447.9042587502169</v>
@@ -9738,7 +9740,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,19 +9880,19 @@
         <v>479.289169423434</v>
       </c>
       <c r="L26" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M26" t="n">
-        <v>169.9599452705675</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N26" t="n">
-        <v>92.91229075661933</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O26" t="n">
-        <v>483.342555376</v>
+        <v>169.8594964393052</v>
       </c>
       <c r="P26" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q26" t="n">
         <v>90.03380439915205</v>
@@ -9951,19 +9953,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>430.2148138580559</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L27" t="n">
         <v>446.2673035610659</v>
       </c>
       <c r="M27" t="n">
-        <v>447.7170634886343</v>
+        <v>244.1092848557653</v>
       </c>
       <c r="N27" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
         <v>57.751479</v>
@@ -9972,10 +9974,10 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10033,7 +10035,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K28" t="n">
-        <v>208.363831904762</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L28" t="n">
         <v>317.1506174091142</v>
@@ -10115,7 +10117,7 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L29" t="n">
-        <v>95.48539806284482</v>
+        <v>428.908120358947</v>
       </c>
       <c r="M29" t="n">
         <v>483.4430042072623</v>
@@ -10127,7 +10129,7 @@
         <v>483.342555376</v>
       </c>
       <c r="P29" t="n">
-        <v>427.0720855769865</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q29" t="n">
         <v>90.03380439915205</v>
@@ -10188,25 +10190,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L30" t="n">
-        <v>430.5035548842895</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M30" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
         <v>443.3461731439669</v>
       </c>
       <c r="O30" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>233.8882038917663</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10270,7 +10272,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K31" t="n">
-        <v>208.3638319047618</v>
+        <v>208.363831904762</v>
       </c>
       <c r="L31" t="n">
         <v>317.1506174091142</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K32" t="n">
-        <v>89.13638967321712</v>
+        <v>422.5591119693194</v>
       </c>
       <c r="L32" t="n">
         <v>485.6381778130617</v>
@@ -10358,7 +10360,7 @@
         <v>483.4430042072623</v>
       </c>
       <c r="N32" t="n">
-        <v>235.3297339513764</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O32" t="n">
         <v>93.18977562578313</v>
@@ -10367,7 +10369,7 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10437,10 +10439,10 @@
         <v>447.7170634886343</v>
       </c>
       <c r="N33" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>447.9042587502169</v>
       </c>
       <c r="P33" t="n">
         <v>444.4124147530206</v>
@@ -10592,13 +10594,13 @@
         <v>485.6381778130617</v>
       </c>
       <c r="M35" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N35" t="n">
         <v>483.0650705068362</v>
       </c>
       <c r="O35" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P35" t="n">
         <v>93.64936328088416</v>
@@ -10662,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>430.5035548842895</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M36" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
         <v>443.3461731439669</v>
       </c>
       <c r="O36" t="n">
-        <v>447.9042587502169</v>
+        <v>274.1545804836408</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10823,16 +10825,16 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K38" t="n">
-        <v>479.289169423434</v>
+        <v>422.5591119693194</v>
       </c>
       <c r="L38" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M38" t="n">
-        <v>143.2741981615041</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N38" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O38" t="n">
         <v>483.342555376</v>
@@ -10841,10 +10843,10 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R38" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,28 +10904,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L39" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>443.3461731439669</v>
       </c>
       <c r="O39" t="n">
-        <v>447.9042587502169</v>
+        <v>402.2824097071476</v>
       </c>
       <c r="P39" t="n">
-        <v>428.6486660762444</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L41" t="n">
         <v>485.6381778130617</v>
       </c>
       <c r="M41" t="n">
-        <v>93.29022445704545</v>
+        <v>169.9599452705675</v>
       </c>
       <c r="N41" t="n">
-        <v>101.9299556837397</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O41" t="n">
         <v>483.342555376</v>
       </c>
       <c r="P41" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11136,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M42" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>447.9042587502169</v>
+        <v>244.2964801173478</v>
       </c>
       <c r="P42" t="n">
-        <v>428.6486660762444</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>479.2891694234339</v>
       </c>
       <c r="L44" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>483.4430042072622</v>
       </c>
       <c r="N44" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>483.3425553759999</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>170.3190840944064</v>
       </c>
       <c r="Q44" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,19 +11375,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610658</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>447.7170634886342</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>239.7383945110976</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
@@ -11394,10 +11396,10 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>51.43314568295542</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>52.25036955906683</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
-        <v>54.62829389390151</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>56.26494249878004</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N46" t="n">
-        <v>51.71264550841944</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
-        <v>56.07489807299633</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>55.77984163990478</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.35952565992557</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23975,19 +23977,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>352.4846942760971</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>26.66732817563241</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>14.48822151587922</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>264.0218451336516</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24051,19 +24053,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>88.26016951102955</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I21" t="n">
         <v>20.54110546596223</v>
@@ -24096,16 +24098,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>118.8494547903743</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>138.6179256372386</v>
+        <v>130.0422551284634</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24209,7 +24211,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>46.54264030984518</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
@@ -24218,13 +24220,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>5.827488417332944</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24263,16 +24265,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>6.484184102520089</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>6.774526571173908</v>
       </c>
     </row>
     <row r="24">
@@ -24303,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24339,13 +24341,13 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U24" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>158.7936483093277</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>122.0554338596327</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
@@ -24382,7 +24384,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>11.90316216013616</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>276.7571414164888</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>146.4348268507549</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
@@ -24491,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -24537,10 +24539,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>31.34243305653136</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24582,7 +24584,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>51.8835385224935</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>76.57499550861117</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>21.03162133124067</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24680,25 +24682,25 @@
         <v>15.96618811762767</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>62.37677637587154</v>
       </c>
       <c r="D29" t="n">
-        <v>10.26651085765315</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G29" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>49.64108905066573</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24746,7 +24748,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>6.774526571173908</v>
       </c>
     </row>
     <row r="30">
@@ -24813,13 +24815,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>195.3773027531635</v>
+        <v>68.70304245345991</v>
       </c>
       <c r="V30" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W30" t="n">
-        <v>84.42657628133097</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>4.874559219805946</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>115.9227025697301</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -24929,13 +24931,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>10.26611526245874</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>213.8471972626172</v>
       </c>
       <c r="X32" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -24996,7 +24998,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25014,7 +25016,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25044,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25053,7 +25055,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>196.0695433066471</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25062,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>149.7834270889755</v>
       </c>
     </row>
     <row r="34">
@@ -25075,22 +25077,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>185.1733813638388</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>92.47449066112773</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>10.26651085765315</v>
       </c>
       <c r="E35" t="n">
-        <v>20.04403357805535</v>
+        <v>66.55024492428123</v>
       </c>
       <c r="F35" t="n">
-        <v>26.66732817563241</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>60.9944328621051</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
@@ -25217,10 +25219,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>6.774526571173908</v>
       </c>
     </row>
     <row r="36">
@@ -25236,22 +25238,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>108.8012749769918</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I36" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25284,16 +25286,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>122.0554338596327</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>108.887109338096</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -25324,7 +25326,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
@@ -25360,19 +25362,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>120.057144656523</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25388,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>15.96618811762767</v>
       </c>
       <c r="C38" t="n">
-        <v>18.56317574253876</v>
+        <v>15.87056502964566</v>
       </c>
       <c r="D38" t="n">
-        <v>10.26651085765315</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -25409,7 +25411,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25448,16 +25450,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>138.4786405048437</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>6.774526571173908</v>
       </c>
     </row>
     <row r="39">
@@ -25476,16 +25478,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E39" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>66.04513340857034</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I39" t="n">
         <v>20.54110546596223</v>
@@ -25518,10 +25520,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T39" t="n">
-        <v>15.83681516313007</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>82.68617307340658</v>
       </c>
       <c r="I40" t="n">
-        <v>50.54991588006416</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -25634,10 +25636,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>366.6814934232401</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
@@ -25646,7 +25648,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,13 +25687,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>217.1965036606975</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -25725,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25755,25 +25757,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U42" t="n">
         <v>195.3773027531635</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>51.88353852249338</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>121.4382659757314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25798,13 +25800,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>9.945583577137953</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>4.874559219806258</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>15.96618811762778</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>15.87056502964577</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>10.26651085765326</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>73.17353952185852</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
@@ -25941,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,10 +25994,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>195.3773027531635</v>
@@ -26004,13 +26006,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>211.1008365810345</v>
+        <v>104.9676817472936</v>
       </c>
       <c r="X45" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26026,22 +26028,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>181.0244246222283</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>493335.6161146728</v>
+        <v>493335.6161146727</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>493335.6161146726</v>
+        <v>493335.6161146727</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>493335.6161146729</v>
+        <v>493335.6161146727</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>493335.6161146727</v>
+        <v>493335.6161146728</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>150357.0455461972</v>
+        <v>493335.6161146727</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26676.25001626079</v>
+        <v>26676.25001626078</v>
       </c>
       <c r="C2" t="n">
         <v>26676.25001626079</v>
       </c>
       <c r="D2" t="n">
-        <v>26676.25001626078</v>
+        <v>26676.25001626079</v>
       </c>
       <c r="E2" t="n">
         <v>26676.25001626079</v>
       </c>
       <c r="F2" t="n">
-        <v>26676.25001626079</v>
+        <v>26676.25001626078</v>
       </c>
       <c r="G2" t="n">
         <v>26676.25001626079</v>
       </c>
       <c r="H2" t="n">
-        <v>87467.56205859465</v>
+        <v>87467.56205859463</v>
       </c>
       <c r="I2" t="n">
-        <v>87467.56205859465</v>
+        <v>87467.56205859466</v>
       </c>
       <c r="J2" t="n">
-        <v>87467.56205859465</v>
+        <v>87467.56205859466</v>
       </c>
       <c r="K2" t="n">
         <v>87467.56205859466</v>
@@ -26344,16 +26346,16 @@
         <v>87467.56205859463</v>
       </c>
       <c r="M2" t="n">
-        <v>87467.56205859466</v>
+        <v>87467.56205859465</v>
       </c>
       <c r="N2" t="n">
         <v>87467.56205859463</v>
       </c>
       <c r="O2" t="n">
+        <v>87467.56205859467</v>
+      </c>
+      <c r="P2" t="n">
         <v>87467.56205859462</v>
-      </c>
-      <c r="P2" t="n">
-        <v>26676.25001626079</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>92221.97316067773</v>
       </c>
     </row>
     <row r="4">
@@ -26457,7 +26459,7 @@
         <v>24529.74119267544</v>
       </c>
       <c r="P4" t="n">
-        <v>7275.340913525669</v>
+        <v>24529.74119267544</v>
       </c>
     </row>
     <row r="5">
@@ -26509,7 +26511,7 @@
         <v>23721.28900881319</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>23721.28900881318</v>
       </c>
     </row>
     <row r="6">
@@ -26522,28 +26524,28 @@
         <v>-14226.69089726488</v>
       </c>
       <c r="C6" t="n">
-        <v>-14226.69089726488</v>
+        <v>-14226.69089726487</v>
       </c>
       <c r="D6" t="n">
-        <v>-14226.69089726489</v>
+        <v>-14226.69089726487</v>
       </c>
       <c r="E6" t="n">
         <v>19400.90910273512</v>
       </c>
       <c r="F6" t="n">
-        <v>19400.90910273512</v>
+        <v>19400.90910273511</v>
       </c>
       <c r="G6" t="n">
         <v>19400.90910273512</v>
       </c>
       <c r="H6" t="n">
-        <v>-66050.19949452026</v>
+        <v>-66050.19949452028</v>
       </c>
       <c r="I6" t="n">
-        <v>39216.53185710602</v>
+        <v>39216.53185710603</v>
       </c>
       <c r="J6" t="n">
-        <v>39216.53185710602</v>
+        <v>39216.53185710603</v>
       </c>
       <c r="K6" t="n">
         <v>39216.53185710603</v>
@@ -26552,16 +26554,16 @@
         <v>39216.53185710601</v>
       </c>
       <c r="M6" t="n">
-        <v>39216.53185710603</v>
+        <v>39216.53185710602</v>
       </c>
       <c r="N6" t="n">
         <v>39216.53185710601</v>
       </c>
       <c r="O6" t="n">
-        <v>39216.53185710599</v>
+        <v>39216.53185710605</v>
       </c>
       <c r="P6" t="n">
-        <v>19400.90910273512</v>
+        <v>-53005.44130357173</v>
       </c>
     </row>
   </sheetData>
@@ -26829,7 +26831,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
     </row>
   </sheetData>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
     </row>
   </sheetData>
@@ -36118,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>374.3890310734405</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P20" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>117.6360295908603</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L21" t="n">
-        <v>186.5450011173479</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P21" t="n">
-        <v>390.1527797502169</v>
+        <v>149.7704685226696</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>29.85810036629282</v>
@@ -36279,7 +36281,7 @@
         <v>14.22479737900053</v>
       </c>
       <c r="K22" t="n">
-        <v>156.1134623456949</v>
+        <v>156.1134623456952</v>
       </c>
       <c r="L22" t="n">
         <v>262.5223235152127</v>
@@ -36361,13 +36363,13 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M23" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="N23" t="n">
-        <v>142.4174431947571</v>
+        <v>76.66972081352203</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -36376,7 +36378,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>40.9663087773382</v>
@@ -36440,13 +36442,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M24" t="n">
-        <v>149.7704685226695</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="N24" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>390.1527797502169</v>
@@ -36458,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,19 +36600,19 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26" t="n">
         <v>76.66972081352203</v>
       </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36671,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>374.3890310734405</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L27" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="M27" t="n">
-        <v>390.1527797502169</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="N27" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,7 +36755,7 @@
         <v>14.22479737900053</v>
       </c>
       <c r="K28" t="n">
-        <v>156.1134623456952</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L28" t="n">
         <v>262.5223235152127</v>
@@ -36835,7 +36837,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>333.4227222961022</v>
       </c>
       <c r="M29" t="n">
         <v>390.1527797502169</v>
@@ -36847,7 +36849,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="P29" t="n">
-        <v>333.4227222961023</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L30" t="n">
-        <v>374.3890310734405</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M30" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="O30" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36990,7 +36992,7 @@
         <v>14.22479737900053</v>
       </c>
       <c r="K31" t="n">
-        <v>156.1134623456949</v>
+        <v>156.1134623456952</v>
       </c>
       <c r="L31" t="n">
         <v>262.5223235152127</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>333.4227222961022</v>
       </c>
       <c r="L32" t="n">
         <v>390.1527797502169</v>
@@ -37078,7 +37080,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="N32" t="n">
-        <v>142.4174431947571</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -37087,7 +37089,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>40.9663087773382</v>
@@ -37157,10 +37159,10 @@
         <v>390.1527797502169</v>
       </c>
       <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>390.1527797502169</v>
@@ -37245,7 +37247,7 @@
         <v>207.7529699491034</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.18992909344536</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,13 +37314,13 @@
         <v>390.1527797502169</v>
       </c>
       <c r="M35" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>374.3890310734405</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M36" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="O36" t="n">
-        <v>390.1527797502169</v>
+        <v>216.4031014836408</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,16 +37545,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
+        <v>333.4227222961022</v>
+      </c>
+      <c r="L38" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
       <c r="M38" t="n">
-        <v>49.98397370445868</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N38" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>390.1527797502169</v>
@@ -37561,10 +37563,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="O39" t="n">
+        <v>344.5309307071475</v>
+      </c>
+      <c r="P39" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="P39" t="n">
-        <v>374.3890310734406</v>
-      </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L41" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>76.66972081352203</v>
       </c>
       <c r="N41" t="n">
-        <v>9.017664927120396</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="P41" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>186.5450011173479</v>
+      </c>
+      <c r="P42" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="N42" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="O42" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="P42" t="n">
-        <v>374.3890310734406</v>
-      </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37958,7 @@
         <v>207.7529699491034</v>
       </c>
       <c r="Q43" t="n">
-        <v>66.18992909344536</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>76.66972081352226</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>186.5450011173476</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38114,10 +38116,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76802.79430192988</v>
+        <v>66905.56347227913</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17594155.61720906</v>
+        <v>17030286.32704076</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15820853.8764602</v>
+        <v>15268205.58516626</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3834642.144527073</v>
+        <v>4116545.528714878</v>
       </c>
     </row>
     <row r="11">
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>341.6784094701709</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>77.13034990612245</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="19">
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>122.7441468994467</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>341.6784094701709</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G20" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>43.7775672649076</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
-        <v>27.46801669177194</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>47.95017680111053</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>174.5627220424961</v>
@@ -2244,22 +2244,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>35.53563203524857</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>62.62190676482996</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2301,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>353.8766502980249</v>
+        <v>206.015516543039</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2450,19 +2450,19 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U24" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W24" t="n">
-        <v>89.0454027214018</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>174.5627220424961</v>
+        <v>69.12146513934091</v>
       </c>
       <c r="Y24" t="n">
         <v>157.8079400398083</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>57.55619843591377</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -2487,16 +2487,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>103.2794232765809</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2557,16 +2557,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>143.2003641082727</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>263.7619864775174</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
     </row>
     <row r="27">
@@ -2639,22 +2639,22 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D27" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F27" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>70.03974083464111</v>
+        <v>15.09023863101106</v>
       </c>
       <c r="I27" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2687,16 +2687,16 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V27" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W27" t="n">
-        <v>159.217298058541</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X27" t="n">
         <v>174.5627220424961</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>258.9385446480964</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>8.792994442897818</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="C29" t="n">
-        <v>343.646568403991</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="F29" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>123.6621491913813</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,7 +2873,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C30" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>115.7281862028015</v>
@@ -2882,13 +2882,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F30" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>106.9101097868343</v>
+        <v>32.01717296675334</v>
       </c>
       <c r="T30" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U30" t="n">
-        <v>126.6742602997035</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X30" t="n">
         <v>174.5627220424961</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>153.0251390105131</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>77.72590661309998</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3040,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
@@ -3091,7 +3091,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>166.0755005935659</v>
+        <v>303.138642751846</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D33" t="n">
         <v>115.7281862028015</v>
@@ -3122,7 +3122,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3167,16 +3167,16 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V33" t="n">
-        <v>211.5744117368965</v>
+        <v>107.2569099399857</v>
       </c>
       <c r="W33" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.024512950832792</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="34">
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>269.5848833179602</v>
       </c>
       <c r="W34" t="n">
-        <v>183.8044771850866</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3271,14 +3271,14 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="E35" t="n">
-        <v>343.646568403991</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>169.2103782980058</v>
       </c>
       <c r="X35" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3350,7 +3350,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
-        <v>6.92691122580971</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3359,13 +3359,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>106.9101097868343</v>
+        <v>28.45791491980162</v>
       </c>
       <c r="T36" t="n">
         <v>157.7484451748619</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>156.2218231896913</v>
+        <v>234.3984192270003</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>125.396777664673</v>
+      </c>
+      <c r="F38" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="C38" t="n">
+      <c r="G38" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>258.1583233478933</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,10 +3584,10 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E39" t="n">
         <v>119.2878878475953</v>
@@ -3596,10 +3596,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>39.87507815023435</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3635,13 +3635,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>195.3773027531635</v>
+        <v>180.2319786803651</v>
       </c>
       <c r="V39" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>211.1008365810345</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>65.42520756919133</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>177.8337659106346</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
@@ -3720,16 +3720,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
@@ -3802,13 +3802,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>179.4404601920395</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>303.138642751846</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I42" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,19 +3869,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>159.6908732144031</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>211.1008365810345</v>
+        <v>126.6742602997035</v>
       </c>
       <c r="X42" t="n">
         <v>174.5627220424961</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>82.85798684944112</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>266.272328390067</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>343.6465684039908</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>79.66075663876451</v>
       </c>
     </row>
     <row r="45">
@@ -4067,16 +4067,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,19 +4106,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>157.7484451748619</v>
+        <v>57.11049760307122</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>106.1331548337409</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
         <v>174.5627220424961</v>
@@ -4149,13 +4149,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>64.81173028540273</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>56.12882701083657</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>736.2144366717104</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>469.0578803298362</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>469.0578803298362</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>352.1607225492286</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>231.6679065415565</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>882.6952661767319</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>706.3692843156248</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>546.9673246794548</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>319.827335036544</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>319.827335036544</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>195.8433482694261</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>195.8433482694261</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1029.84703862227</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1289.407648948744</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1006.148485102302</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>732.2627400418237</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>732.2627400418237</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>732.2627400418237</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>507.5270414305884</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>469.5257042134764</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="C20" t="n">
-        <v>469.5257042134764</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="D20" t="n">
-        <v>469.5257042134764</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="E20" t="n">
-        <v>469.5257042134764</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="F20" t="n">
-        <v>469.5257042134764</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="G20" t="n">
-        <v>75.43198729406544</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H20" t="n">
         <v>31.21222238001735</v>
@@ -5755,49 +5755,49 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K20" t="n">
-        <v>285.3976938477716</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L20" t="n">
-        <v>285.3976938477716</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M20" t="n">
-        <v>285.3976938477716</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="N20" t="n">
-        <v>671.6489458004863</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="O20" t="n">
-        <v>1057.900197753201</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="P20" t="n">
-        <v>1444.151449705916</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q20" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R20" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S20" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T20" t="n">
-        <v>1203.123559741827</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U20" t="n">
-        <v>1203.123559741827</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="V20" t="n">
-        <v>853.2860050783079</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="W20" t="n">
-        <v>469.5257042134764</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="X20" t="n">
-        <v>469.5257042134764</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="Y20" t="n">
-        <v>469.5257042134764</v>
+        <v>1081.344143207237</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>192.9527650369019</v>
+        <v>546.4889659361597</v>
       </c>
       <c r="C21" t="n">
-        <v>58.9576937858476</v>
+        <v>412.4938946851054</v>
       </c>
       <c r="D21" t="n">
-        <v>31.21222238001735</v>
+        <v>295.5967369044978</v>
       </c>
       <c r="E21" t="n">
-        <v>31.21222238001735</v>
+        <v>295.5967369044978</v>
       </c>
       <c r="F21" t="n">
-        <v>31.21222238001735</v>
+        <v>186.6368570870024</v>
       </c>
       <c r="G21" t="n">
-        <v>31.21222238001735</v>
+        <v>79.64674440134112</v>
       </c>
       <c r="H21" t="n">
         <v>31.21222238001735</v>
@@ -5834,25 +5834,25 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K21" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L21" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="M21" t="n">
         <v>610.2763318953653</v>
       </c>
       <c r="N21" t="n">
-        <v>996.52758384808</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="O21" t="n">
-        <v>1382.778835800795</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="P21" t="n">
-        <v>1531.051599638238</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="Q21" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R21" t="n">
         <v>1560.611119000868</v>
@@ -5870,13 +5870,13 @@
         <v>882.216907433437</v>
       </c>
       <c r="W21" t="n">
-        <v>668.9837391697657</v>
+        <v>882.216907433437</v>
       </c>
       <c r="X21" t="n">
-        <v>492.6577573086585</v>
+        <v>705.8909255723297</v>
       </c>
       <c r="Y21" t="n">
-        <v>333.2557976724885</v>
+        <v>546.4889659361597</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>824.5591335306709</v>
+        <v>597.4415630597722</v>
       </c>
       <c r="C22" t="n">
-        <v>653.4657610923874</v>
+        <v>426.3481906214887</v>
       </c>
       <c r="D22" t="n">
-        <v>493.9711164152974</v>
+        <v>426.3481906214887</v>
       </c>
       <c r="E22" t="n">
-        <v>333.0603012836169</v>
+        <v>426.3481906214887</v>
       </c>
       <c r="F22" t="n">
-        <v>333.0603012836169</v>
+        <v>261.71706473208</v>
       </c>
       <c r="G22" t="n">
-        <v>297.1657234702345</v>
+        <v>94.46667365762337</v>
       </c>
       <c r="H22" t="n">
-        <v>147.5582682756912</v>
+        <v>94.46667365762337</v>
       </c>
       <c r="I22" t="n">
         <v>31.21222238001735</v>
@@ -5913,13 +5913,13 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K22" t="n">
-        <v>199.8470995074661</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L22" t="n">
-        <v>459.7441997875267</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M22" t="n">
-        <v>749.0082562280199</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N22" t="n">
         <v>1029.84703862227</v>
@@ -5937,25 +5937,25 @@
         <v>1475.338400676267</v>
       </c>
       <c r="S22" t="n">
-        <v>1475.338400676267</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T22" t="n">
-        <v>1475.338400676267</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="U22" t="n">
-        <v>1475.338400676267</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="V22" t="n">
-        <v>1475.338400676267</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="W22" t="n">
-        <v>1475.338400676267</v>
+        <v>1009.876968065052</v>
       </c>
       <c r="X22" t="n">
-        <v>1236.994538535951</v>
+        <v>1009.876968065052</v>
       </c>
       <c r="Y22" t="n">
-        <v>1012.258839924715</v>
+        <v>785.1412694538166</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>388.6633842972142</v>
+        <v>944.3109180283154</v>
       </c>
       <c r="C23" t="n">
-        <v>388.6633842972142</v>
+        <v>944.3109180283154</v>
       </c>
       <c r="D23" t="n">
-        <v>31.21222238001735</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="E23" t="n">
-        <v>31.21222238001735</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="F23" t="n">
-        <v>31.21222238001735</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="G23" t="n">
-        <v>31.21222238001735</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H23" t="n">
         <v>31.21222238001735</v>
@@ -5992,22 +5992,22 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K23" t="n">
-        <v>671.6489458004863</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L23" t="n">
-        <v>1057.900197753201</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M23" t="n">
-        <v>1444.151449705916</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="N23" t="n">
-        <v>1520.054473311303</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="O23" t="n">
-        <v>1520.054473311303</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P23" t="n">
-        <v>1520.054473311303</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q23" t="n">
         <v>1520.054473311303</v>
@@ -6019,22 +6019,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T23" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U23" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="V23" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="W23" t="n">
-        <v>1176.850818136036</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="X23" t="n">
-        <v>782.7571012166252</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="Y23" t="n">
-        <v>388.6633842972142</v>
+        <v>1338.404634947726</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>689.2944728867919</v>
+        <v>710.0430642665517</v>
       </c>
       <c r="C24" t="n">
-        <v>555.2994016357376</v>
+        <v>576.0479930154975</v>
       </c>
       <c r="D24" t="n">
-        <v>438.40224385513</v>
+        <v>459.1508352348899</v>
       </c>
       <c r="E24" t="n">
-        <v>317.909427847458</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="F24" t="n">
-        <v>208.9495480299626</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G24" t="n">
-        <v>101.9594353443013</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H24" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I24" t="n">
         <v>31.21222238001735</v>
@@ -6071,22 +6071,22 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K24" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L24" t="n">
-        <v>610.2763318953653</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="M24" t="n">
-        <v>788.1086150954382</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="N24" t="n">
-        <v>788.1086150954382</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="O24" t="n">
-        <v>1174.359867048153</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="P24" t="n">
-        <v>1560.611119000868</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="Q24" t="n">
         <v>1560.611119000868</v>
@@ -6098,22 +6098,22 @@
         <v>1452.621109115176</v>
       </c>
       <c r="T24" t="n">
-        <v>1452.621109115176</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U24" t="n">
-        <v>1255.270298253395</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="V24" t="n">
-        <v>1255.270298253395</v>
+        <v>1079.567718295218</v>
       </c>
       <c r="W24" t="n">
-        <v>1165.325447019656</v>
+        <v>1079.567718295218</v>
       </c>
       <c r="X24" t="n">
-        <v>988.9994651585486</v>
+        <v>1009.748056538308</v>
       </c>
       <c r="Y24" t="n">
-        <v>829.5975055223786</v>
+        <v>850.3460969021384</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>627.0337044013955</v>
+        <v>857.9828192260178</v>
       </c>
       <c r="C25" t="n">
-        <v>455.940331963112</v>
+        <v>799.8452450483271</v>
       </c>
       <c r="D25" t="n">
-        <v>296.4456872860221</v>
+        <v>640.3506003712371</v>
       </c>
       <c r="E25" t="n">
-        <v>135.5348721543415</v>
+        <v>479.4397852395565</v>
       </c>
       <c r="F25" t="n">
-        <v>135.5348721543415</v>
+        <v>314.8086593501478</v>
       </c>
       <c r="G25" t="n">
-        <v>135.5348721543415</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="H25" t="n">
-        <v>135.5348721543415</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="I25" t="n">
         <v>31.21222238001735</v>
@@ -6150,7 +6150,7 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K25" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L25" t="n">
         <v>459.7441997875264</v>
@@ -6177,22 +6177,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T25" t="n">
-        <v>1560.611119000868</v>
+        <v>1321.06237997757</v>
       </c>
       <c r="U25" t="n">
-        <v>1277.812971546992</v>
+        <v>1321.06237997757</v>
       </c>
       <c r="V25" t="n">
-        <v>1277.812971546992</v>
+        <v>1321.06237997757</v>
       </c>
       <c r="W25" t="n">
-        <v>1277.812971546992</v>
+        <v>1321.06237997757</v>
       </c>
       <c r="X25" t="n">
-        <v>1039.469109406675</v>
+        <v>1082.718517837253</v>
       </c>
       <c r="Y25" t="n">
-        <v>814.7334107954399</v>
+        <v>857.9828192260178</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>691.7321882666176</v>
+        <v>175.859054812616</v>
       </c>
       <c r="C26" t="n">
-        <v>691.7321882666176</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D26" t="n">
-        <v>691.7321882666176</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E26" t="n">
-        <v>425.3059392994284</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F26" t="n">
         <v>31.21222238001735</v>
@@ -6229,22 +6229,22 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K26" t="n">
-        <v>671.6489458004863</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L26" t="n">
-        <v>671.6489458004863</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M26" t="n">
-        <v>671.6489458004863</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="N26" t="n">
-        <v>1057.900197753201</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="O26" t="n">
-        <v>1133.803221358588</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P26" t="n">
-        <v>1520.054473311303</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q26" t="n">
         <v>1520.054473311303</v>
@@ -6253,25 +6253,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S26" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T26" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U26" t="n">
-        <v>1425.330043794968</v>
+        <v>1303.550627260378</v>
       </c>
       <c r="V26" t="n">
-        <v>1075.492489131449</v>
+        <v>953.7130725968584</v>
       </c>
       <c r="W26" t="n">
-        <v>691.7321882666176</v>
+        <v>569.952771732027</v>
       </c>
       <c r="X26" t="n">
-        <v>691.7321882666176</v>
+        <v>569.952771732027</v>
       </c>
       <c r="Y26" t="n">
-        <v>691.7321882666176</v>
+        <v>175.859054812616</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>710.0430642665517</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C27" t="n">
-        <v>576.0479930154975</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D27" t="n">
-        <v>459.1508352348899</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="E27" t="n">
-        <v>338.6580192272179</v>
+        <v>46.45488766386691</v>
       </c>
       <c r="F27" t="n">
-        <v>229.6981394097224</v>
+        <v>46.45488766386691</v>
       </c>
       <c r="G27" t="n">
-        <v>122.7080267240611</v>
+        <v>46.45488766386691</v>
       </c>
       <c r="H27" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I27" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J27" t="n">
-        <v>224.0250799426506</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K27" t="n">
-        <v>610.2763318953653</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L27" t="n">
-        <v>996.52758384808</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="M27" t="n">
-        <v>1181.207134954254</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="N27" t="n">
-        <v>1181.207134954254</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="O27" t="n">
-        <v>1181.207134954254</v>
+        <v>803.7147262854468</v>
       </c>
       <c r="P27" t="n">
-        <v>1181.207134954254</v>
+        <v>1189.965978238161</v>
       </c>
       <c r="Q27" t="n">
-        <v>1531.051599638238</v>
+        <v>1539.810442922145</v>
       </c>
       <c r="R27" t="n">
         <v>1560.611119000868</v>
@@ -6335,22 +6335,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T27" t="n">
-        <v>1560.611119000868</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U27" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V27" t="n">
-        <v>1346.899591993901</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W27" t="n">
-        <v>1186.074038399415</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X27" t="n">
-        <v>1009.748056538308</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y27" t="n">
-        <v>850.3460969021384</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>361.8002394953908</v>
+        <v>534.1871117821662</v>
       </c>
       <c r="C28" t="n">
-        <v>190.7068670571073</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="D28" t="n">
-        <v>31.21222238001735</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="E28" t="n">
-        <v>31.21222238001735</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="F28" t="n">
-        <v>31.21222238001735</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="G28" t="n">
         <v>31.21222238001735</v>
@@ -6387,7 +6387,7 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K28" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L28" t="n">
         <v>459.7441997875264</v>
@@ -6414,22 +6414,22 @@
         <v>1288.946632556178</v>
       </c>
       <c r="T28" t="n">
-        <v>1049.39789353288</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="U28" t="n">
-        <v>787.8438080297519</v>
+        <v>1006.148485102302</v>
       </c>
       <c r="V28" t="n">
-        <v>787.8438080297519</v>
+        <v>1006.148485102302</v>
       </c>
       <c r="W28" t="n">
-        <v>787.8438080297519</v>
+        <v>997.2666725337181</v>
       </c>
       <c r="X28" t="n">
-        <v>549.4999458894353</v>
+        <v>758.9228103934015</v>
       </c>
       <c r="Y28" t="n">
-        <v>549.4999458894353</v>
+        <v>534.1871117821662</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>772.4236851620456</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="C29" t="n">
-        <v>425.3059392994284</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="D29" t="n">
-        <v>425.3059392994284</v>
+        <v>944.3109180283154</v>
       </c>
       <c r="E29" t="n">
-        <v>425.3059392994284</v>
+        <v>550.2172011089044</v>
       </c>
       <c r="F29" t="n">
-        <v>31.21222238001735</v>
+        <v>156.1234841894934</v>
       </c>
       <c r="G29" t="n">
         <v>31.21222238001735</v>
@@ -6463,25 +6463,25 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J29" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K29" t="n">
-        <v>31.21222238001735</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L29" t="n">
-        <v>361.3007174531585</v>
+        <v>812.642214563296</v>
       </c>
       <c r="M29" t="n">
-        <v>747.5519694058733</v>
+        <v>812.642214563296</v>
       </c>
       <c r="N29" t="n">
-        <v>1133.803221358588</v>
+        <v>812.642214563296</v>
       </c>
       <c r="O29" t="n">
-        <v>1520.054473311303</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P29" t="n">
-        <v>1520.054473311303</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q29" t="n">
         <v>1520.054473311303</v>
@@ -6493,22 +6493,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T29" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U29" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="V29" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="W29" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="X29" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="Y29" t="n">
-        <v>1166.517402081457</v>
+        <v>1338.404634947726</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>689.2944728867919</v>
+        <v>268.6021961682969</v>
       </c>
       <c r="C30" t="n">
-        <v>555.2994016357376</v>
+        <v>268.6021961682969</v>
       </c>
       <c r="D30" t="n">
-        <v>438.40224385513</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="E30" t="n">
-        <v>317.909427847458</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F30" t="n">
-        <v>208.9495480299626</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G30" t="n">
-        <v>101.9594353443013</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H30" t="n">
         <v>31.21222238001735</v>
@@ -6554,13 +6554,13 @@
         <v>996.52758384808</v>
       </c>
       <c r="N30" t="n">
-        <v>1382.778835800795</v>
+        <v>996.52758384808</v>
       </c>
       <c r="O30" t="n">
-        <v>1382.778835800795</v>
+        <v>996.52758384808</v>
       </c>
       <c r="P30" t="n">
-        <v>1560.611119000868</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="Q30" t="n">
         <v>1560.611119000868</v>
@@ -6569,25 +6569,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S30" t="n">
-        <v>1452.621109115176</v>
+        <v>1528.270540246571</v>
       </c>
       <c r="T30" t="n">
-        <v>1293.279245302185</v>
+        <v>1368.92867643358</v>
       </c>
       <c r="U30" t="n">
-        <v>1165.325447019656</v>
+        <v>1171.577865571798</v>
       </c>
       <c r="V30" t="n">
-        <v>1165.325447019656</v>
+        <v>957.8663385648321</v>
       </c>
       <c r="W30" t="n">
-        <v>1165.325447019656</v>
+        <v>744.6331703011608</v>
       </c>
       <c r="X30" t="n">
-        <v>988.9994651585486</v>
+        <v>568.3071884400536</v>
       </c>
       <c r="Y30" t="n">
-        <v>829.5975055223786</v>
+        <v>408.9052288038836</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>356.8764423036677</v>
+        <v>109.7232391609264</v>
       </c>
       <c r="C31" t="n">
-        <v>185.7830698653842</v>
+        <v>109.7232391609264</v>
       </c>
       <c r="D31" t="n">
-        <v>31.21222238001735</v>
+        <v>109.7232391609264</v>
       </c>
       <c r="E31" t="n">
-        <v>31.21222238001735</v>
+        <v>109.7232391609264</v>
       </c>
       <c r="F31" t="n">
-        <v>31.21222238001735</v>
+        <v>109.7232391609264</v>
       </c>
       <c r="G31" t="n">
-        <v>31.21222238001735</v>
+        <v>109.7232391609264</v>
       </c>
       <c r="H31" t="n">
         <v>31.21222238001735</v>
@@ -6648,25 +6648,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S31" t="n">
-        <v>1560.611119000868</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T31" t="n">
-        <v>1560.611119000868</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="U31" t="n">
-        <v>1560.611119000868</v>
+        <v>851.872464403604</v>
       </c>
       <c r="V31" t="n">
-        <v>1286.72537394039</v>
+        <v>851.872464403604</v>
       </c>
       <c r="W31" t="n">
-        <v>1007.655709449264</v>
+        <v>572.8027999124783</v>
       </c>
       <c r="X31" t="n">
-        <v>769.3118473089473</v>
+        <v>334.4589377721617</v>
       </c>
       <c r="Y31" t="n">
-        <v>544.576148697712</v>
+        <v>109.7232391609264</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>428.4724824352262</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="C32" t="n">
-        <v>428.4724824352262</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="D32" t="n">
-        <v>428.4724824352262</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="E32" t="n">
-        <v>428.4724824352262</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="F32" t="n">
-        <v>428.4724824352262</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G32" t="n">
-        <v>428.4724824352262</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H32" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I32" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J32" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K32" t="n">
-        <v>361.3007174531585</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L32" t="n">
-        <v>747.5519694058733</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M32" t="n">
-        <v>1133.803221358588</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="N32" t="n">
-        <v>1520.054473311303</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="O32" t="n">
-        <v>1520.054473311303</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P32" t="n">
-        <v>1520.054473311303</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q32" t="n">
         <v>1520.054473311303</v>
@@ -6727,25 +6727,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S32" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T32" t="n">
-        <v>1203.123559741827</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U32" t="n">
-        <v>946.0630680013373</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="V32" t="n">
-        <v>596.225513337818</v>
+        <v>731.5065885437173</v>
       </c>
       <c r="W32" t="n">
-        <v>428.4724824352262</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="X32" t="n">
-        <v>428.4724824352262</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="Y32" t="n">
-        <v>428.4724824352262</v>
+        <v>425.3059392994284</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>484.5521886714537</v>
+        <v>511.5571472368467</v>
       </c>
       <c r="C33" t="n">
-        <v>484.5521886714537</v>
+        <v>377.5620759857924</v>
       </c>
       <c r="D33" t="n">
-        <v>367.6550308908461</v>
+        <v>260.6649182051848</v>
       </c>
       <c r="E33" t="n">
-        <v>247.1622148831741</v>
+        <v>140.1721021975128</v>
       </c>
       <c r="F33" t="n">
-        <v>138.2023350656787</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G33" t="n">
         <v>31.21222238001735</v>
@@ -6779,28 +6779,28 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J33" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K33" t="n">
-        <v>31.21222238001735</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L33" t="n">
-        <v>401.8573631427234</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M33" t="n">
-        <v>788.1086150954382</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N33" t="n">
-        <v>788.1086150954382</v>
+        <v>996.52758384808</v>
       </c>
       <c r="O33" t="n">
-        <v>1174.359867048153</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="P33" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="Q33" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R33" t="n">
         <v>1560.611119000868</v>
@@ -6815,16 +6815,16 @@
         <v>1095.928434440403</v>
       </c>
       <c r="V33" t="n">
-        <v>882.216907433437</v>
+        <v>987.5881213697105</v>
       </c>
       <c r="W33" t="n">
-        <v>668.9837391697657</v>
+        <v>987.5881213697105</v>
       </c>
       <c r="X33" t="n">
-        <v>492.6577573086585</v>
+        <v>811.2621395086032</v>
       </c>
       <c r="Y33" t="n">
-        <v>484.5521886714537</v>
+        <v>651.8601798724333</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>307.0529129527812</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C34" t="n">
-        <v>307.0529129527812</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D34" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E34" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F34" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G34" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H34" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I34" t="n">
         <v>31.21222238001735</v>
@@ -6876,34 +6876,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P34" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q34" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R34" t="n">
         <v>1475.338400676267</v>
       </c>
       <c r="S34" t="n">
-        <v>1288.946632556177</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T34" t="n">
-        <v>1049.397893532879</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="U34" t="n">
-        <v>766.5997460790034</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="V34" t="n">
-        <v>492.7140010185253</v>
+        <v>494.2917831315693</v>
       </c>
       <c r="W34" t="n">
-        <v>307.0529129527812</v>
+        <v>494.2917831315693</v>
       </c>
       <c r="X34" t="n">
-        <v>307.0529129527812</v>
+        <v>255.9479209912527</v>
       </c>
       <c r="Y34" t="n">
-        <v>307.0529129527812</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>772.4236851620456</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="C35" t="n">
-        <v>772.4236851620456</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="D35" t="n">
-        <v>378.3299682426345</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="E35" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="F35" t="n">
         <v>31.21222238001735</v>
@@ -6937,25 +6937,25 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J35" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K35" t="n">
-        <v>361.3007174531585</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L35" t="n">
-        <v>747.5519694058733</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M35" t="n">
-        <v>747.5519694058733</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="N35" t="n">
-        <v>1133.803221358588</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="O35" t="n">
-        <v>1520.054473311303</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P35" t="n">
-        <v>1520.054473311303</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q35" t="n">
         <v>1520.054473311303</v>
@@ -6964,25 +6964,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S35" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T35" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U35" t="n">
-        <v>1560.611119000868</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="V35" t="n">
-        <v>1560.611119000868</v>
+        <v>596.225513337818</v>
       </c>
       <c r="W35" t="n">
-        <v>1560.611119000868</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="X35" t="n">
-        <v>1166.517402081457</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="Y35" t="n">
-        <v>772.4236851620456</v>
+        <v>425.3059392994284</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>192.9527650369019</v>
+        <v>272.197406316733</v>
       </c>
       <c r="C36" t="n">
-        <v>58.9576937858476</v>
+        <v>138.2023350656787</v>
       </c>
       <c r="D36" t="n">
-        <v>51.96081375977718</v>
+        <v>138.2023350656787</v>
       </c>
       <c r="E36" t="n">
-        <v>51.96081375977718</v>
+        <v>138.2023350656787</v>
       </c>
       <c r="F36" t="n">
-        <v>51.96081375977718</v>
+        <v>138.2023350656787</v>
       </c>
       <c r="G36" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H36" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I36" t="n">
         <v>31.21222238001735</v>
@@ -7025,16 +7025,16 @@
         <v>610.2763318953653</v>
       </c>
       <c r="M36" t="n">
-        <v>610.2763318953653</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N36" t="n">
         <v>996.52758384808</v>
       </c>
       <c r="O36" t="n">
-        <v>1210.766654316884</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="P36" t="n">
-        <v>1210.766654316884</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="Q36" t="n">
         <v>1560.611119000868</v>
@@ -7043,25 +7043,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S36" t="n">
-        <v>1452.621109115176</v>
+        <v>1531.865750395007</v>
       </c>
       <c r="T36" t="n">
-        <v>1293.279245302185</v>
+        <v>1372.523886582016</v>
       </c>
       <c r="U36" t="n">
-        <v>1095.928434440403</v>
+        <v>1175.173075720234</v>
       </c>
       <c r="V36" t="n">
-        <v>882.216907433437</v>
+        <v>961.4615487132681</v>
       </c>
       <c r="W36" t="n">
-        <v>668.9837391697657</v>
+        <v>748.2283804495969</v>
       </c>
       <c r="X36" t="n">
-        <v>492.6577573086585</v>
+        <v>571.9023985884896</v>
       </c>
       <c r="Y36" t="n">
-        <v>333.2557976724885</v>
+        <v>412.5004389523196</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>478.1462853910647</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C37" t="n">
-        <v>307.0529129527812</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D37" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E37" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F37" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G37" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H37" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I37" t="n">
         <v>31.21222238001735</v>
@@ -7119,28 +7119,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R37" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S37" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T37" t="n">
-        <v>1560.611119000868</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="U37" t="n">
-        <v>1560.611119000868</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="V37" t="n">
-        <v>1286.72537394039</v>
+        <v>492.7140010185257</v>
       </c>
       <c r="W37" t="n">
-        <v>1128.925552536661</v>
+        <v>255.9479209912527</v>
       </c>
       <c r="X37" t="n">
-        <v>890.5816903963444</v>
+        <v>255.9479209912527</v>
       </c>
       <c r="Y37" t="n">
-        <v>665.845991785109</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>511.6577019823552</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="C38" t="n">
-        <v>117.5639850629442</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="D38" t="n">
-        <v>117.5639850629442</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="E38" t="n">
-        <v>117.5639850629442</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="F38" t="n">
-        <v>117.5639850629442</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="G38" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H38" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I38" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J38" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K38" t="n">
-        <v>361.3007174531585</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L38" t="n">
-        <v>747.5519694058733</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M38" t="n">
-        <v>1133.803221358588</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="N38" t="n">
-        <v>1133.803221358588</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="O38" t="n">
-        <v>1520.054473311303</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="P38" t="n">
-        <v>1520.054473311303</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="Q38" t="n">
         <v>1520.054473311303</v>
@@ -7201,25 +7201,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S38" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T38" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U38" t="n">
-        <v>1560.611119000868</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="V38" t="n">
-        <v>1560.611119000868</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="W38" t="n">
-        <v>1560.611119000868</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="X38" t="n">
-        <v>1299.845135821177</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="Y38" t="n">
-        <v>905.7514189017662</v>
+        <v>946.0630680013373</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>300.9427749225932</v>
+        <v>689.2944728867919</v>
       </c>
       <c r="C39" t="n">
-        <v>300.9427749225932</v>
+        <v>555.2994016357376</v>
       </c>
       <c r="D39" t="n">
-        <v>300.9427749225932</v>
+        <v>438.40224385513</v>
       </c>
       <c r="E39" t="n">
-        <v>180.4499589149212</v>
+        <v>317.909427847458</v>
       </c>
       <c r="F39" t="n">
-        <v>71.49007909742579</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="G39" t="n">
-        <v>31.21222238001735</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H39" t="n">
         <v>31.21222238001735</v>
@@ -7253,28 +7253,28 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J39" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K39" t="n">
-        <v>417.4634743327321</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L39" t="n">
-        <v>417.4634743327321</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="M39" t="n">
-        <v>417.4634743327321</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="N39" t="n">
-        <v>803.7147262854468</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="O39" t="n">
-        <v>1144.800347685523</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="P39" t="n">
-        <v>1531.051599638238</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="Q39" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R39" t="n">
         <v>1560.611119000868</v>
@@ -7283,22 +7283,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T39" t="n">
-        <v>1401.269255187876</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U39" t="n">
-        <v>1203.918444326094</v>
+        <v>1378.558615283327</v>
       </c>
       <c r="V39" t="n">
-        <v>990.2069173191283</v>
+        <v>1378.558615283327</v>
       </c>
       <c r="W39" t="n">
-        <v>776.973749055457</v>
+        <v>1165.325447019656</v>
       </c>
       <c r="X39" t="n">
-        <v>600.6477671943499</v>
+        <v>988.9994651585486</v>
       </c>
       <c r="Y39" t="n">
-        <v>441.2458075581799</v>
+        <v>829.5975055223786</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>213.6443365273996</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C40" t="n">
-        <v>213.6443365273996</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D40" t="n">
-        <v>213.6443365273996</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E40" t="n">
-        <v>213.6443365273996</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F40" t="n">
-        <v>213.6443365273996</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G40" t="n">
-        <v>213.6443365273996</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H40" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I40" t="n">
         <v>31.21222238001735</v>
@@ -7350,34 +7350,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P40" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q40" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R40" t="n">
         <v>1475.338400676267</v>
       </c>
       <c r="S40" t="n">
-        <v>1288.946632556177</v>
+        <v>1295.708334099869</v>
       </c>
       <c r="T40" t="n">
-        <v>1049.397893532879</v>
+        <v>1056.159595076571</v>
       </c>
       <c r="U40" t="n">
-        <v>766.5997460790034</v>
+        <v>773.3614476226949</v>
       </c>
       <c r="V40" t="n">
-        <v>492.7140010185253</v>
+        <v>773.3614476226949</v>
       </c>
       <c r="W40" t="n">
-        <v>213.6443365273996</v>
+        <v>494.2917831315693</v>
       </c>
       <c r="X40" t="n">
-        <v>213.6443365273996</v>
+        <v>255.9479209912527</v>
       </c>
       <c r="Y40" t="n">
-        <v>213.6443365273996</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="C41" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="D41" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="E41" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="F41" t="n">
         <v>31.21222238001735</v>
@@ -7417,13 +7417,13 @@
         <v>671.6489458004863</v>
       </c>
       <c r="L41" t="n">
-        <v>1057.900197753201</v>
+        <v>747.5519694058733</v>
       </c>
       <c r="M41" t="n">
         <v>1133.803221358588</v>
       </c>
       <c r="N41" t="n">
-        <v>1133.803221358588</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="O41" t="n">
         <v>1520.054473311303</v>
@@ -7438,25 +7438,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S41" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T41" t="n">
-        <v>1203.123559741827</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U41" t="n">
-        <v>946.0630680013373</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="V41" t="n">
-        <v>596.225513337818</v>
+        <v>731.5065885437173</v>
       </c>
       <c r="W41" t="n">
-        <v>212.4652124729866</v>
+        <v>731.5065885437173</v>
       </c>
       <c r="X41" t="n">
-        <v>31.21222238001735</v>
+        <v>731.5065885437173</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>710.0430642665517</v>
+        <v>689.2944728867919</v>
       </c>
       <c r="C42" t="n">
-        <v>576.0479930154975</v>
+        <v>555.2994016357376</v>
       </c>
       <c r="D42" t="n">
-        <v>459.1508352348899</v>
+        <v>438.40224385513</v>
       </c>
       <c r="E42" t="n">
-        <v>338.6580192272179</v>
+        <v>317.909427847458</v>
       </c>
       <c r="F42" t="n">
-        <v>229.6981394097224</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="G42" t="n">
-        <v>122.7080267240611</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H42" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I42" t="n">
         <v>31.21222238001735</v>
@@ -7493,7 +7493,7 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K42" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L42" t="n">
         <v>610.2763318953653</v>
@@ -7517,25 +7517,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S42" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T42" t="n">
-        <v>1560.611119000868</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U42" t="n">
-        <v>1560.611119000868</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="V42" t="n">
-        <v>1399.307206663087</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="W42" t="n">
-        <v>1186.074038399415</v>
+        <v>1165.325447019656</v>
       </c>
       <c r="X42" t="n">
-        <v>1009.748056538308</v>
+        <v>988.9994651585486</v>
       </c>
       <c r="Y42" t="n">
-        <v>850.3460969021384</v>
+        <v>829.5975055223786</v>
       </c>
     </row>
     <row r="43">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>361.8002394953908</v>
+        <v>114.907158591574</v>
       </c>
       <c r="C43" t="n">
-        <v>190.7068670571073</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D43" t="n">
         <v>31.21222238001735</v>
@@ -7587,34 +7587,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P43" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q43" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R43" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S43" t="n">
-        <v>1560.611119000867</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T43" t="n">
-        <v>1560.611119000867</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="U43" t="n">
-        <v>1560.611119000867</v>
+        <v>851.872464403604</v>
       </c>
       <c r="V43" t="n">
-        <v>1291.649171132113</v>
+        <v>577.986719343126</v>
       </c>
       <c r="W43" t="n">
-        <v>1012.579506640987</v>
+        <v>577.986719343126</v>
       </c>
       <c r="X43" t="n">
-        <v>774.2356445006706</v>
+        <v>339.6428572028094</v>
       </c>
       <c r="Y43" t="n">
-        <v>549.4999458894353</v>
+        <v>114.907158591574</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1166.517402081456</v>
+        <v>1130.308153591121</v>
       </c>
       <c r="C44" t="n">
-        <v>772.4236851620452</v>
+        <v>1130.308153591121</v>
       </c>
       <c r="D44" t="n">
-        <v>378.3299682426343</v>
+        <v>1130.308153591121</v>
       </c>
       <c r="E44" t="n">
-        <v>378.3299682426343</v>
+        <v>1130.308153591121</v>
       </c>
       <c r="F44" t="n">
-        <v>31.21222238001734</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="G44" t="n">
-        <v>31.21222238001734</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H44" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I44" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J44" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K44" t="n">
-        <v>671.6489458004862</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="L44" t="n">
-        <v>671.6489458004862</v>
+        <v>747.5519694058733</v>
       </c>
       <c r="M44" t="n">
-        <v>1057.900197753201</v>
+        <v>747.5519694058733</v>
       </c>
       <c r="N44" t="n">
-        <v>1057.900197753201</v>
+        <v>747.5519694058733</v>
       </c>
       <c r="O44" t="n">
-        <v>1444.151449705915</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="P44" t="n">
-        <v>1520.054473311302</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="Q44" t="n">
-        <v>1520.054473311302</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R44" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S44" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T44" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U44" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V44" t="n">
-        <v>1560.611119000867</v>
+        <v>1210.773564337348</v>
       </c>
       <c r="W44" t="n">
-        <v>1560.611119000867</v>
+        <v>1210.773564337348</v>
       </c>
       <c r="X44" t="n">
-        <v>1560.611119000867</v>
+        <v>1210.773564337348</v>
       </c>
       <c r="Y44" t="n">
-        <v>1560.611119000867</v>
+        <v>1130.308153591121</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>710.0430642665517</v>
+        <v>402.5972674193512</v>
       </c>
       <c r="C45" t="n">
-        <v>576.0479930154975</v>
+        <v>268.6021961682969</v>
       </c>
       <c r="D45" t="n">
-        <v>459.1508352348899</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="E45" t="n">
-        <v>338.6580192272178</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F45" t="n">
-        <v>229.6981394097224</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G45" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H45" t="n">
-        <v>51.96081375977717</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I45" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J45" t="n">
         <v>224.0250799426506</v>
       </c>
       <c r="K45" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L45" t="n">
-        <v>610.2763318953652</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="M45" t="n">
-        <v>996.5275838480798</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="N45" t="n">
-        <v>1181.207134954254</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="O45" t="n">
-        <v>1181.207134954254</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P45" t="n">
         <v>1181.207134954254</v>
       </c>
       <c r="Q45" t="n">
-        <v>1531.051599638237</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R45" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S45" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T45" t="n">
-        <v>1293.279245302184</v>
+        <v>1502.923747684634</v>
       </c>
       <c r="U45" t="n">
-        <v>1293.279245302184</v>
+        <v>1305.572936822853</v>
       </c>
       <c r="V45" t="n">
-        <v>1293.279245302184</v>
+        <v>1091.861409815886</v>
       </c>
       <c r="W45" t="n">
-        <v>1186.074038399415</v>
+        <v>878.6282415522151</v>
       </c>
       <c r="X45" t="n">
-        <v>1009.748056538308</v>
+        <v>702.3022596911078</v>
       </c>
       <c r="Y45" t="n">
-        <v>850.3460969021384</v>
+        <v>542.9003000549378</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>949.4527002428704</v>
+        <v>581.7152023058761</v>
       </c>
       <c r="C46" t="n">
-        <v>949.4527002428704</v>
+        <v>581.7152023058761</v>
       </c>
       <c r="D46" t="n">
-        <v>789.9580555657803</v>
+        <v>422.2205576287861</v>
       </c>
       <c r="E46" t="n">
-        <v>629.0472404340999</v>
+        <v>261.3097424971056</v>
       </c>
       <c r="F46" t="n">
-        <v>464.4161145446911</v>
+        <v>96.67861660769688</v>
       </c>
       <c r="G46" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H46" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I46" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J46" t="n">
-        <v>45.29477178522788</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K46" t="n">
         <v>199.8470995074659</v>
@@ -7815,7 +7815,7 @@
         <v>459.7441997875264</v>
       </c>
       <c r="M46" t="n">
-        <v>749.0082562280196</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N46" t="n">
         <v>1029.84703862227</v>
@@ -7824,34 +7824,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P46" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q46" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R46" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S46" t="n">
-        <v>1288.946632556177</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T46" t="n">
-        <v>1232.250847696746</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="U46" t="n">
-        <v>949.4527002428704</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="V46" t="n">
-        <v>949.4527002428704</v>
+        <v>860.7848667970018</v>
       </c>
       <c r="W46" t="n">
-        <v>949.4527002428704</v>
+        <v>581.7152023058761</v>
       </c>
       <c r="X46" t="n">
-        <v>949.4527002428704</v>
+        <v>581.7152023058761</v>
       </c>
       <c r="Y46" t="n">
-        <v>949.4527002428704</v>
+        <v>581.7152023058761</v>
       </c>
     </row>
   </sheetData>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L17" t="n">
         <v>95.48539806284482</v>
@@ -9178,16 +9178,16 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O17" t="n">
-        <v>93.18977562578313</v>
+        <v>235.6072188205403</v>
       </c>
       <c r="P17" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>244.1092848557653</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
@@ -9263,10 +9263,10 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>51.43314568295542</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
-        <v>52.25036955906683</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
-        <v>54.62829389390151</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
-        <v>56.26494249878004</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N19" t="n">
-        <v>51.71264550841944</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O19" t="n">
-        <v>56.07489807299633</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P19" t="n">
-        <v>55.77984163990478</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.35952565992557</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9403,28 +9403,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L20" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M20" t="n">
-        <v>93.29022445704545</v>
+        <v>235.7076676518025</v>
       </c>
       <c r="N20" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O20" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P20" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q20" t="n">
-        <v>207.6698339900124</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,28 +9482,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L21" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>447.9042587502169</v>
+        <v>274.1545804836408</v>
       </c>
       <c r="P21" t="n">
-        <v>204.0301035254733</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,7 +9561,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>208.363831904762</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L22" t="n">
         <v>317.1506174091142</v>
@@ -9640,25 +9640,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L23" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M23" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N23" t="n">
-        <v>169.5820115701414</v>
+        <v>235.3297339513765</v>
       </c>
       <c r="O23" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P23" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q23" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
         <v>128.2784515920617</v>
@@ -9719,25 +9719,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L24" t="n">
-        <v>446.2673035610659</v>
+        <v>272.5176252944898</v>
       </c>
       <c r="M24" t="n">
-        <v>237.1928526273799</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>444.4124147530206</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9877,7 +9877,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L26" t="n">
         <v>95.48539806284482</v>
@@ -9886,16 +9886,16 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N26" t="n">
-        <v>483.0650705068362</v>
+        <v>235.3297339513765</v>
       </c>
       <c r="O26" t="n">
-        <v>169.8594964393052</v>
+        <v>483.342555376</v>
       </c>
       <c r="P26" t="n">
         <v>483.8021430311011</v>
       </c>
       <c r="Q26" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
         <v>128.2784515920617</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>445.9785625348323</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>446.2673035610659</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>244.1092848557653</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>443.3461731439669</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>447.9042587502169</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q27" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>80.01098302330718</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L29" t="n">
-        <v>428.908120358947</v>
+        <v>237.902841257602</v>
       </c>
       <c r="M29" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N29" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O29" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P29" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q29" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
         <v>128.2784515920617</v>
@@ -10202,16 +10202,16 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>233.8882038917663</v>
+        <v>270.6627364864445</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>422.5591119693194</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L32" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M32" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N32" t="n">
-        <v>483.0650705068362</v>
+        <v>235.3297339513765</v>
       </c>
       <c r="O32" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P32" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q32" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10427,16 +10427,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L33" t="n">
-        <v>430.5035548842895</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M33" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
@@ -10445,13 +10445,13 @@
         <v>447.9042587502169</v>
       </c>
       <c r="P33" t="n">
-        <v>444.4124147530206</v>
+        <v>204.0301035254733</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>422.5591119693194</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L35" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M35" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N35" t="n">
-        <v>483.0650705068362</v>
+        <v>235.3297339513765</v>
       </c>
       <c r="O35" t="n">
         <v>483.342555376</v>
       </c>
       <c r="P35" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q35" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10673,19 +10673,19 @@
         <v>446.2673035610659</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N36" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>274.1545804836408</v>
+        <v>447.9042587502169</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.0708656603775</v>
+        <v>236.3211873938012</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10822,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>422.5591119693194</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L38" t="n">
         <v>485.6381778130617</v>
       </c>
       <c r="M38" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N38" t="n">
         <v>92.91229075661933</v>
@@ -10843,7 +10843,7 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q38" t="n">
-        <v>90.03380439915205</v>
+        <v>166.7035252126741</v>
       </c>
       <c r="R38" t="n">
         <v>128.2784515920617</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>445.9785625348323</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>272.5176252944898</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>402.2824097071476</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>444.4124147530206</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,16 +11065,16 @@
         <v>479.289169423434</v>
       </c>
       <c r="L41" t="n">
-        <v>485.6381778130617</v>
+        <v>172.155118876367</v>
       </c>
       <c r="M41" t="n">
-        <v>169.9599452705675</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N41" t="n">
-        <v>92.91229075661933</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O41" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P41" t="n">
         <v>93.64936328088416</v>
@@ -11141,10 +11141,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L42" t="n">
-        <v>446.2673035610659</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
@@ -11296,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
-        <v>479.2891694234339</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>428.908120358947</v>
       </c>
       <c r="M44" t="n">
-        <v>483.4430042072622</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N44" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
-        <v>483.3425553759999</v>
+        <v>483.342555376</v>
       </c>
       <c r="P44" t="n">
-        <v>170.3190840944064</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q44" t="n">
         <v>90.03380439915205</v>
@@ -11378,22 +11378,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L45" t="n">
-        <v>446.2673035610658</v>
+        <v>242.6595249281969</v>
       </c>
       <c r="M45" t="n">
-        <v>447.7170634886342</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>239.7383945110976</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
@@ -23743,13 +23743,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G17" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -23785,13 +23785,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>4.660769646713163</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>138.9000023092308</v>
+        <v>61.76965240310831</v>
       </c>
       <c r="C18" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>105.9202115588047</v>
       </c>
       <c r="H18" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>35.15555133087234</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -23958,7 +23958,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>64.44055839767361</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
@@ -23980,13 +23980,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G20" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>264.0218451336516</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>88.26016951102955</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>70.03974083464111</v>
+        <v>22.08956403353058</v>
       </c>
       <c r="I21" t="n">
         <v>20.54110546596223</v>
@@ -24110,7 +24110,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>130.0422551284634</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>52.56067867188715</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
@@ -24189,10 +24189,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>15.96618811762767</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>46.54264030984518</v>
+        <v>194.403774064831</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24259,7 +24259,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -24268,13 +24268,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24305,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24338,19 +24338,19 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V24" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>122.0554338596327</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>105.4412569031552</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>111.8262402779869</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>11.90316216013616</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -24445,16 +24445,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>262.8229806715899</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>146.4348268507549</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>26.66732817563241</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>6.774526571173908</v>
       </c>
     </row>
     <row r="27">
@@ -24527,22 +24527,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>54.94950220363005</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24575,16 +24575,16 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T27" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>51.8835385224935</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
@@ -24654,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>21.03162133124067</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>267.4859734033166</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>62.37677637587154</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>10.26651085765315</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F29" t="n">
         <v>26.66732817563241</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>280.9788520747148</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
@@ -24733,7 +24733,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
@@ -24748,7 +24748,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24761,7 +24761,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24770,13 +24770,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I30" t="n">
         <v>20.54110546596223</v>
@@ -24809,19 +24809,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>74.89293682008092</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>68.70304245345991</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>4.874559219805946</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -24855,7 +24855,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>70.38547402949793</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24888,16 +24888,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24928,16 +24928,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>213.8471972626172</v>
+        <v>76.78405510433709</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25010,7 +25010,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H33" t="n">
         <v>70.03974083464111</v>
@@ -25055,16 +25055,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>104.3175017969108</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>149.7834270889755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25080,7 +25080,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
@@ -25095,7 +25095,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1.56200429191307</v>
       </c>
       <c r="W34" t="n">
-        <v>92.47449066112773</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,13 +25159,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>10.26651085765315</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>66.55024492428123</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>210.7123195581773</v>
       </c>
       <c r="X35" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25238,7 +25238,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>108.8012749769918</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
         <v>119.2878878475953</v>
@@ -25247,13 +25247,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>70.03974083464111</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>78.45219486703263</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -25332,7 +25332,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>120.057144656523</v>
+        <v>41.88054861921404</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>284.8000356635993</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>14.48822151587922</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -25456,10 +25456,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>138.4786405048437</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25472,10 +25472,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25484,10 +25484,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>66.04513340857034</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>20.54110546596223</v>
@@ -25523,13 +25523,13 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>15.14532407279839</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>82.68617307340658</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>6.694084528254251</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25639,7 +25639,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>217.1965036606975</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>93.78866356954478</v>
       </c>
     </row>
     <row r="42">
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,19 +25757,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>195.3773027531635</v>
       </c>
       <c r="V42" t="n">
-        <v>51.88353852249338</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>84.42657628133097</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>86.52445186445954</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25836,19 +25836,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>4.874559219806258</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>15.96618811762778</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>15.87056502964577</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>10.26651085765326</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>73.17353952185852</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>14.48822151587922</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25924,7 +25924,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -25933,7 +25933,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>317.2665496826263</v>
       </c>
     </row>
     <row r="45">
@@ -25955,16 +25955,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,19 +25994,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>100.6379475717906</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>104.9676817472936</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>100.7661568783093</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>181.0244246222283</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>150357.0455461972</v>
+        <v>493335.6161146727</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>493335.6161146727</v>
+        <v>493335.6161146728</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>493335.6161146727</v>
+        <v>493335.6161146729</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>493335.6161146727</v>
+        <v>493335.6161146728</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>493335.6161146728</v>
+        <v>493335.6161146726</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>493335.6161146727</v>
+        <v>493335.6161146728</v>
       </c>
     </row>
   </sheetData>
@@ -26325,37 +26325,37 @@
         <v>26676.25001626079</v>
       </c>
       <c r="F2" t="n">
-        <v>26676.25001626078</v>
+        <v>26676.25001626079</v>
       </c>
       <c r="G2" t="n">
-        <v>26676.25001626079</v>
+        <v>87467.56205859465</v>
       </c>
       <c r="H2" t="n">
-        <v>87467.56205859463</v>
+        <v>87467.56205859466</v>
       </c>
       <c r="I2" t="n">
         <v>87467.56205859466</v>
       </c>
       <c r="J2" t="n">
-        <v>87467.56205859466</v>
+        <v>87467.56205859463</v>
       </c>
       <c r="K2" t="n">
-        <v>87467.56205859466</v>
+        <v>87467.56205859463</v>
       </c>
       <c r="L2" t="n">
-        <v>87467.56205859463</v>
+        <v>87467.56205859467</v>
       </c>
       <c r="M2" t="n">
+        <v>87467.56205859462</v>
+      </c>
+      <c r="N2" t="n">
         <v>87467.56205859465</v>
       </c>
-      <c r="N2" t="n">
-        <v>87467.56205859463</v>
-      </c>
       <c r="O2" t="n">
-        <v>87467.56205859467</v>
+        <v>87467.56205859465</v>
       </c>
       <c r="P2" t="n">
-        <v>87467.56205859462</v>
+        <v>87467.56205859465</v>
       </c>
     </row>
     <row r="3">
@@ -26380,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>106935.0246378382</v>
       </c>
       <c r="H3" t="n">
-        <v>105266.7313516263</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>93890.65659966946</v>
       </c>
       <c r="P3" t="n">
-        <v>92221.97316067773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26432,7 +26432,7 @@
         <v>7275.340913525669</v>
       </c>
       <c r="G4" t="n">
-        <v>7275.340913525669</v>
+        <v>24529.74119267544</v>
       </c>
       <c r="H4" t="n">
         <v>24529.74119267544</v>
@@ -26484,7 +26484,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>23721.28900881319</v>
       </c>
       <c r="H5" t="n">
         <v>23721.28900881319</v>
@@ -26511,7 +26511,7 @@
         <v>23721.28900881319</v>
       </c>
       <c r="P5" t="n">
-        <v>23721.28900881318</v>
+        <v>23721.28900881319</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14226.69089726488</v>
+        <v>-15613.00346380527</v>
       </c>
       <c r="C6" t="n">
-        <v>-14226.69089726487</v>
+        <v>-15613.00346380526</v>
       </c>
       <c r="D6" t="n">
-        <v>-14226.69089726487</v>
+        <v>-15613.00346380526</v>
       </c>
       <c r="E6" t="n">
-        <v>19400.90910273512</v>
+        <v>18014.59653619474</v>
       </c>
       <c r="F6" t="n">
-        <v>19400.90910273511</v>
+        <v>18014.59653619474</v>
       </c>
       <c r="G6" t="n">
-        <v>19400.90910273512</v>
+        <v>-68552.15705597863</v>
       </c>
       <c r="H6" t="n">
-        <v>-66050.19949452028</v>
+        <v>38382.86758185959</v>
       </c>
       <c r="I6" t="n">
-        <v>39216.53185710603</v>
+        <v>38382.86758185959</v>
       </c>
       <c r="J6" t="n">
-        <v>39216.53185710603</v>
+        <v>38382.86758185957</v>
       </c>
       <c r="K6" t="n">
-        <v>39216.53185710603</v>
+        <v>38382.86758185957</v>
       </c>
       <c r="L6" t="n">
-        <v>39216.53185710601</v>
+        <v>38382.86758185961</v>
       </c>
       <c r="M6" t="n">
-        <v>39216.53185710602</v>
+        <v>38382.86758185955</v>
       </c>
       <c r="N6" t="n">
-        <v>39216.53185710601</v>
+        <v>38382.86758185958</v>
       </c>
       <c r="O6" t="n">
-        <v>39216.53185710605</v>
+        <v>-55507.78901780988</v>
       </c>
       <c r="P6" t="n">
-        <v>-53005.44130357173</v>
+        <v>38382.86758185958</v>
       </c>
     </row>
   </sheetData>
@@ -26804,7 +26804,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="H4" t="n">
         <v>390.1527797502169</v>
@@ -26831,7 +26831,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="P4" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
     </row>
   </sheetData>
@@ -27026,34 +27026,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
       <c r="P4" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27272,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P4" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -35898,16 +35898,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>142.4174431947572</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>66.18992909344536</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>142.4174431947571</v>
       </c>
       <c r="N20" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>117.6360295908603</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>216.4031014836408</v>
+      </c>
+      <c r="P21" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="N21" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="O21" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="P21" t="n">
-        <v>149.7704685226696</v>
-      </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>14.22479737900053</v>
       </c>
       <c r="K22" t="n">
-        <v>156.1134623456952</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L22" t="n">
         <v>262.5223235152127</v>
@@ -36360,25 +36360,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>142.4174431947572</v>
+      </c>
+      <c r="O23" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L23" t="n">
+      <c r="P23" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M23" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="N23" t="n">
-        <v>76.66972081352203</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
         <v>40.9663087773382</v>
@@ -36439,25 +36439,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L24" t="n">
-        <v>390.1527797502169</v>
+        <v>216.4031014836408</v>
       </c>
       <c r="M24" t="n">
-        <v>179.6285688889625</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,25 +36597,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>142.4174431947572</v>
+      </c>
+      <c r="O26" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="O26" t="n">
-        <v>76.66972081352203</v>
       </c>
       <c r="P26" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R26" t="n">
         <v>40.9663087773382</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L27" t="n">
+      <c r="O27" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M27" t="n">
-        <v>186.5450011173479</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q27" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>21.01078391790176</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L29" t="n">
-        <v>333.4227222961022</v>
+        <v>142.4174431947572</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="N29" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="O29" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R29" t="n">
         <v>40.9663087773382</v>
@@ -36922,16 +36922,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>179.6285688889625</v>
+        <v>216.4031014836408</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
-        <v>333.4227222961022</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>142.4174431947572</v>
+      </c>
+      <c r="O32" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M32" t="n">
+      <c r="P32" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="N32" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
         <v>40.9663087773382</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L33" t="n">
-        <v>374.3890310734405</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M33" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>390.1527797502169</v>
       </c>
       <c r="P33" t="n">
-        <v>390.1527797502169</v>
+        <v>149.7704685226696</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>333.4227222961022</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>390.1527797502169</v>
+        <v>142.4174431947572</v>
       </c>
       <c r="O35" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37393,19 +37393,19 @@
         <v>390.1527797502169</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="O36" t="n">
-        <v>216.4031014836408</v>
-      </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>353.3782471555388</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>333.4227222961022</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L38" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="M38" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>76.66972081352203</v>
       </c>
       <c r="R38" t="n">
         <v>40.9663087773382</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>216.4031014836408</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>344.5309307071475</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,16 +37785,16 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L41" t="n">
+        <v>76.66972081352215</v>
+      </c>
+      <c r="M41" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M41" t="n">
-        <v>76.66972081352203</v>
-      </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O41" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37861,10 +37861,10 @@
         <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L42" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>333.4227222961022</v>
       </c>
       <c r="M44" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P44" t="n">
-        <v>76.66972081352226</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L45" t="n">
-        <v>390.1527797502168</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="M45" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>186.5450011173476</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q45" t="n">
         <v>353.3782471555388</v>
